--- a/Översikt LUDVIKA.xlsx
+++ b/Översikt LUDVIKA.xlsx
@@ -575,7 +575,7 @@
         <v>45940</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         <v>45835.45435185185</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>45961</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>45786</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45993</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44937</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45841</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>45629.57699074074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45588.46537037037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>45981</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>45847</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>45786</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>45509.42555555556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45597.35666666667</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>45908</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>45940</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45981</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>45800</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45842</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>45945</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45993</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>45849.53956018519</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>45971</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>45611.45895833334</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>44435</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>45901.44197916667</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>45785</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>45607.62311342593</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>45791.34482638889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>45791.35133101852</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>44844.50239583333</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>46029.64107638889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>45910</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>46010</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>45800</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>45596.66278935185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>45940</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>45842</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>45971</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         <v>45978</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>45940</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>45978</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>46009.77782407407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>45463</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44998.36106481482</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>45770</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>44441</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>44571</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44694</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>45373.61137731482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>45189</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44693</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>44888</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>45541.54527777778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>45518.38504629629</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>45800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>45911</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>45919</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>45929</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>45930.48451388889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>45093</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>45596.63347222222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>45945</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>45947</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>45575.77649305556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>45825</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45089</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>45840</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>44560</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>45866</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45943</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>45971</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>45974</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>45321</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>46031.41959490741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>45993</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>45761.39600694444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>45992.950625</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44706</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>46021</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>46008</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>46009.56876157408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>45105</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>45761</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>45791</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>45791.3395949074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>45791.35438657407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>45791.36149305556</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>44831</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44281.58608796296</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44302</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44358</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44516</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44447</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44404.87238425926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>44771.62452546296</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>44244.68400462963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>44344.64224537037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
         <v>44322.48659722223</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>44336</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>44244.68228009259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>44452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>44869</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>44502.71049768518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44503.53900462963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44550.55576388889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44362</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44370</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>44387</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44368.49107638889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44370</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>44456</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>44643</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>44459.29900462963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>44730.99023148148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10610,7 +10610,7 @@
         <v>44376.4954050926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44482</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44771.62211805556</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44730.92502314815</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>44370</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44397</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44377</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44851.3506712963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44872</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44872.4658912037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44720</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44560.42800925926</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>44658</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44827.80170138889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>44590.92709490741</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44616.7841550926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44706</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44785</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>44330.486875</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>44420</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44439</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>44386</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44386</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44237</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44482.46922453704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44508</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>44470</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>44715.63222222222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>44482.46025462963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44872</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12400,7 +12400,7 @@
         <v>45594.57820601852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
         <v>44841.75935185186</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>44893</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>44477</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>45349</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>45212.65407407407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>45569</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>45594.5666550926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>45594.37241898148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>44413</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>44711</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>45317.4196875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>45611.45319444445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>45572.4962037037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45622.44318287037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>45219.37885416667</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>45761.67243055555</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>45687.39811342592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>45510.51506944445</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>45531.30570601852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>45512.44429398148</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>45761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>45645</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44844.62275462963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44960.65628472222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>45769</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>45737.49886574074</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45226.4590625</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>45519</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>45629.60636574074</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>44730.98890046297</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>45450</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>45105</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>45638.46208333333</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14520,7 +14520,7 @@
         <v>45708.43793981482</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>44859</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14639,7 +14639,7 @@
         <v>44960</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>45596.65178240741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44895</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>45799</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>45629.55177083334</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>45371.61341435185</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>45791.37006944444</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>45791.3942824074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>45798.59552083333</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>45799</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>45884</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>45884</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>45541.41780092593</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>45799</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44393</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45106</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45499</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45799</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>45798</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>45754</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>45349</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>45349</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>45798</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45161.42324074074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         <v>45803</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>45799</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>45803</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>45803</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>45800</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16417,7 +16417,7 @@
         <v>44264</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16474,7 +16474,7 @@
         <v>45800</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>45622.43274305556</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>45646.40943287037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>45800</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>45800</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>45607.36243055556</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>45800</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45800</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45800</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45625.42575231481</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>45208.35689814815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>45805</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45805.65954861111</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45807.39702546296</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>45208</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>45811.42434027778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17441,7 +17441,7 @@
         <v>45810.44368055555</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>44859.49887731481</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>45810</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>45579.35708333334</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>45810.59527777778</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45810.34362268518</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>44929</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45813</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45569.59005787037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45811.57329861111</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44364.63512731482</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>45860</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>45813</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>45813</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>45813</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>45813</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>45813</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>45813</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45891.41975694444</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>45895.00098379629</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>45560.45458333333</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         <v>45576</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45562.53986111111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>44439.68940972222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>45603.4574074074</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>45574</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44978</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>45898</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19152,7 +19152,7 @@
         <v>45898</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         <v>44890</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>45901.31774305556</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>45898</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         <v>45898.60778935185</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>45789.67512731482</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>45898</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>45819</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>45903.39708333334</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>45903.41763888889</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>45191.34273148148</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45903</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45902</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>45903</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>45903.55486111111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>45902.67721064815</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         <v>45902.78278935186</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>45820.38174768518</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45868.4570949074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>44560.4366087963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>45904.70763888889</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>45904.59947916667</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>45623.64104166667</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>45825.37844907407</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>45824.66146990741</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>45744.38216435185</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45909.45607638889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45152.36019675926</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>45910</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>45911.48769675926</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>45911.49506944444</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21029,7 +21029,7 @@
         <v>45910.91788194444</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>45911.43200231482</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>45910.3044212963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>45911.43902777778</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>45910.86336805556</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>45827</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>45827</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21453,7 +21453,7 @@
         <v>45911</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21515,7 +21515,7 @@
         <v>44515.48929398148</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
         <v>45915</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>45826</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44893.675</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44994</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21877,7 +21877,7 @@
         <v>45502</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21934,7 +21934,7 @@
         <v>44405.60167824074</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21991,7 +21991,7 @@
         <v>45827</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>45827</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>45747.46331018519</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>45917.59390046296</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>45916.0008912037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>45831.59947916667</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45831.58627314815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45915.99416666666</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45831.6599537037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45063</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45911</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         <v>45918.47898148148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>45919</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>45831</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>45918.65405092593</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>45902</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>45923</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45832</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>45923.32206018519</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>45321</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>45923.64064814815</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>45131</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>45832</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23382,7 +23382,7 @@
         <v>45912</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>45924.43376157407</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>45253.65673611111</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>45924</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>45833</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>45208.65275462963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>45832</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>45512.48011574074</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>45925</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>45834.57716435185</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>45924.45159722222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>45924.46261574074</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>45924.45614583333</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>45924.55571759259</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>45644.59155092593</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>45246</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>45929.60186342592</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>45835</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>45611.55626157407</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>45926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24592,7 +24592,7 @@
         <v>45835</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>45926</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>45595.33203703703</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>45926</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>45926.58377314815</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>45562.53810185185</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>45562.58427083334</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>45594.55173611111</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25083,7 +25083,7 @@
         <v>44916.67578703703</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>45926</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>45926</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>45210</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
         <v>45210</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>45202.59850694444</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>45838</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>45621.62696759259</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>45933.48107638889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>45840</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25698,7 +25698,7 @@
         <v>45936.36644675926</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>45936.45299768518</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45644.44615740741</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45716.41461805555</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45840</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45936.36597222222</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>45936.46136574074</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45611.551875</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26184,7 +26184,7 @@
         <v>45637.99482638889</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26241,7 +26241,7 @@
         <v>44859.42164351852</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>45840</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26365,7 +26365,7 @@
         <v>44687.67511574074</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26422,7 +26422,7 @@
         <v>45940</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45940</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45940</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26608,7 +26608,7 @@
         <v>45845</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>45502.30283564814</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>45845</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         <v>45562.40503472222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26851,7 +26851,7 @@
         <v>45846</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26913,7 +26913,7 @@
         <v>45944.93016203704</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>44789</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45847</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>44893.67267361111</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27146,7 +27146,7 @@
         <v>45847</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27208,7 +27208,7 @@
         <v>44552</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27265,7 +27265,7 @@
         <v>45849</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27327,7 +27327,7 @@
         <v>45474.31796296296</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27384,7 +27384,7 @@
         <v>45189</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>45849</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>45849</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45525.56513888889</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45629</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>45589.44649305556</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45951.41353009259</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>45576</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45810</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>45825</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>45856</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28046,7 +28046,7 @@
         <v>44923.35560185185</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28103,7 +28103,7 @@
         <v>45512</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>45863</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>45863</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28289,7 +28289,7 @@
         <v>45862</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28351,7 +28351,7 @@
         <v>45863</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45832</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>45832</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>44825.64709490741</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45952.37715277778</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45832</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>45840</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>45840</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>45849</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28904,7 +28904,7 @@
         <v>45840</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44680</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44459</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>45869</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>45869</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>45869</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29271,7 +29271,7 @@
         <v>45952.01278935185</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29328,7 +29328,7 @@
         <v>45954</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45954</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29452,7 +29452,7 @@
         <v>45860</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29514,7 +29514,7 @@
         <v>45567.45354166667</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29576,7 +29576,7 @@
         <v>45869</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>45301</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>45301</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>45954.43010416667</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29814,7 +29814,7 @@
         <v>45954</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29876,7 +29876,7 @@
         <v>45957.34634259259</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>45954.56233796296</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45297</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45954</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30114,7 +30114,7 @@
         <v>45957</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30176,7 +30176,7 @@
         <v>45957</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>45954.56762731481</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>45954.43126157407</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>45954</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30419,7 +30419,7 @@
         <v>45954.38309027778</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30476,7 +30476,7 @@
         <v>45957</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>45337</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45954</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>45954</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>45335.60587962963</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>45152.3591087963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30828,7 +30828,7 @@
         <v>45629.60449074074</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30890,7 +30890,7 @@
         <v>45205</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>45761.66826388889</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>45639</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>45512.3703125</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>45875.51950231481</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>45196.46915509259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>45875.54314814815</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>45954.41153935185</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31371,7 +31371,7 @@
         <v>44292</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31433,7 +31433,7 @@
         <v>45775.41047453704</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>45762</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31552,7 +31552,7 @@
         <v>45960</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45960</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31676,7 +31676,7 @@
         <v>45219.4410300926</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31738,7 +31738,7 @@
         <v>45960</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31800,7 +31800,7 @@
         <v>44333</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>45334</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>45379.57112268519</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>45924.44282407407</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32043,7 +32043,7 @@
         <v>45965.36070601852</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32100,7 +32100,7 @@
         <v>45965.42407407407</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32162,7 +32162,7 @@
         <v>45891.45390046296</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32224,7 +32224,7 @@
         <v>45963.40699074074</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>45813</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32348,7 +32348,7 @@
         <v>45849</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32410,7 +32410,7 @@
         <v>45891.55704861111</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32472,7 +32472,7 @@
         <v>45966.41693287037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32534,7 +32534,7 @@
         <v>45099.49403935186</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32596,7 +32596,7 @@
         <v>45904.75224537037</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32653,7 +32653,7 @@
         <v>45971.50697916667</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>45971</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32777,7 +32777,7 @@
         <v>44316</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32839,7 +32839,7 @@
         <v>45971.41719907407</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32901,7 +32901,7 @@
         <v>45113</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32963,7 +32963,7 @@
         <v>45968</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>45968</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>45968</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33149,7 +33149,7 @@
         <v>45971</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         <v>45971</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45883.65762731482</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33330,7 +33330,7 @@
         <v>45849</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33392,7 +33392,7 @@
         <v>45971.47175925926</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33454,7 +33454,7 @@
         <v>45971</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33516,7 +33516,7 @@
         <v>44994</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33578,7 +33578,7 @@
         <v>45971</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33640,7 +33640,7 @@
         <v>45971.47452546296</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33702,7 +33702,7 @@
         <v>45971</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33764,7 +33764,7 @@
         <v>45968</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         <v>45488</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33883,7 +33883,7 @@
         <v>45405</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>45973</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45973</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34084,7 +34084,7 @@
         <v>45973.499375</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         <v>45973.50497685185</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34208,7 +34208,7 @@
         <v>44970.60710648148</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34270,7 +34270,7 @@
         <v>44970.61488425926</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34332,7 +34332,7 @@
         <v>45973</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34394,7 +34394,7 @@
         <v>45973</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34456,7 +34456,7 @@
         <v>45972</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34518,7 +34518,7 @@
         <v>45551.76079861111</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34575,7 +34575,7 @@
         <v>45974</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34637,7 +34637,7 @@
         <v>45975</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>45974</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>45974</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45975.59326388889</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34885,7 +34885,7 @@
         <v>45567.46006944445</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34947,7 +34947,7 @@
         <v>45537.44119212963</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35009,7 +35009,7 @@
         <v>45974</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35071,7 +35071,7 @@
         <v>45975</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35133,7 +35133,7 @@
         <v>45974</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35195,7 +35195,7 @@
         <v>45975.64983796296</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44853</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35319,7 +35319,7 @@
         <v>45978</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>45601.56344907408</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>45279</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45099.48079861111</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35557,7 +35557,7 @@
         <v>45568.00373842593</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35614,7 +35614,7 @@
         <v>45981</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35676,7 +35676,7 @@
         <v>45980</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35738,7 +35738,7 @@
         <v>45981</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>45985</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35862,7 +35862,7 @@
         <v>44825.88506944444</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35919,7 +35919,7 @@
         <v>45576</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35981,7 +35981,7 @@
         <v>45246</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>45043</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36100,7 +36100,7 @@
         <v>46029.58525462963</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36162,7 +36162,7 @@
         <v>45399.34371527778</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36224,7 +36224,7 @@
         <v>45399.42689814815</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36281,7 +36281,7 @@
         <v>45644.65412037037</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36343,7 +36343,7 @@
         <v>45152.35784722222</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36405,7 +36405,7 @@
         <v>45909.44322916667</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36462,7 +36462,7 @@
         <v>45989</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>45988</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36581,7 +36581,7 @@
         <v>45929.6437962963</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36643,7 +36643,7 @@
         <v>44291</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36700,7 +36700,7 @@
         <v>45929.59041666667</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36762,7 +36762,7 @@
         <v>45288</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36819,7 +36819,7 @@
         <v>45989</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36881,7 +36881,7 @@
         <v>45989</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36943,7 +36943,7 @@
         <v>45887.62774305556</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37005,7 +37005,7 @@
         <v>45891.56180555555</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37067,7 +37067,7 @@
         <v>45988</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37129,7 +37129,7 @@
         <v>45581</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37191,7 +37191,7 @@
         <v>45988</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>45743.4653587963</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37310,7 +37310,7 @@
         <v>45989</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37367,7 +37367,7 @@
         <v>45989</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37424,7 +37424,7 @@
         <v>45989</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37486,7 +37486,7 @@
         <v>45988.44615740741</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37563,7 +37563,7 @@
         <v>44903</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37620,7 +37620,7 @@
         <v>45579.33577546296</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37677,7 +37677,7 @@
         <v>45579.33912037037</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>45579.34377314815</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37791,7 +37791,7 @@
         <v>45993</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37853,7 +37853,7 @@
         <v>45616.50763888889</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37915,7 +37915,7 @@
         <v>45993</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37977,7 +37977,7 @@
         <v>44879</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38039,7 +38039,7 @@
         <v>45638.31543981482</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38096,7 +38096,7 @@
         <v>45575.35040509259</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38158,7 +38158,7 @@
         <v>45575</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38220,7 +38220,7 @@
         <v>45995.51628472222</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38277,7 +38277,7 @@
         <v>45995.51954861111</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>45995.50630787037</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38401,7 +38401,7 @@
         <v>45705.54684027778</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38458,7 +38458,7 @@
         <v>45112</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38520,7 +38520,7 @@
         <v>45198.41046296297</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>45265</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38639,7 +38639,7 @@
         <v>46038.62740740741</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38696,7 +38696,7 @@
         <v>44865.36378472222</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38758,7 +38758,7 @@
         <v>46037</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38815,7 +38815,7 @@
         <v>44981.40171296296</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38872,7 +38872,7 @@
         <v>46001.66116898148</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38934,7 +38934,7 @@
         <v>46042.83335648148</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38991,7 +38991,7 @@
         <v>45961</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>45481.9578125</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39110,7 +39110,7 @@
         <v>45562.36709490741</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39172,7 +39172,7 @@
         <v>45616.60813657408</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39234,7 +39234,7 @@
         <v>45644.45210648148</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39291,7 +39291,7 @@
         <v>45411.46208333333</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39353,7 +39353,7 @@
         <v>45679.36682870371</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39410,7 +39410,7 @@
         <v>44771.61702546296</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39467,7 +39467,7 @@
         <v>46001.66863425926</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39529,7 +39529,7 @@
         <v>45961</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39591,7 +39591,7 @@
         <v>46001.61622685185</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39653,7 +39653,7 @@
         <v>45624.59535879629</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39710,7 +39710,7 @@
         <v>45103.46510416667</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39767,7 +39767,7 @@
         <v>45775</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39829,7 +39829,7 @@
         <v>45166.70038194444</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39891,7 +39891,7 @@
         <v>45629.54122685185</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39953,7 +39953,7 @@
         <v>46002</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40015,7 +40015,7 @@
         <v>45520.63197916667</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40072,7 +40072,7 @@
         <v>46007</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40134,7 +40134,7 @@
         <v>46007</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40196,7 +40196,7 @@
         <v>44883</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40258,7 +40258,7 @@
         <v>45938.36746527778</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40320,7 +40320,7 @@
         <v>46007.69107638889</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40382,7 +40382,7 @@
         <v>45062.39581018518</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40444,7 +40444,7 @@
         <v>45168.36769675926</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>46008</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40568,7 +40568,7 @@
         <v>46008</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>45616.35984953704</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40692,7 +40692,7 @@
         <v>46009</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40754,7 +40754,7 @@
         <v>45765.67115740741</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40811,7 +40811,7 @@
         <v>45594.57032407408</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40873,7 +40873,7 @@
         <v>46009.44271990741</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40930,7 +40930,7 @@
         <v>46021</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         <v>45204</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41049,7 +41049,7 @@
         <v>45740.37754629629</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         <v>46008.69476851852</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41168,7 +41168,7 @@
         <v>46008</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41230,7 +41230,7 @@
         <v>46008</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41292,7 +41292,7 @@
         <v>45609</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>46008</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41416,7 +41416,7 @@
         <v>46008.69097222222</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41478,7 +41478,7 @@
         <v>46008</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41540,7 +41540,7 @@
         <v>45225.40709490741</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>45225.41042824074</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41664,7 +41664,7 @@
         <v>46030</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41721,7 +41721,7 @@
         <v>44929.61017361111</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41778,7 +41778,7 @@
         <v>45575.34820601852</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41840,7 +41840,7 @@
         <v>44476</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41902,7 +41902,7 @@
         <v>46010.60270833333</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41964,7 +41964,7 @@
         <v>44533</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45569.59278935185</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42088,7 +42088,7 @@
         <v>45761</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42150,7 +42150,7 @@
         <v>46010</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42212,7 +42212,7 @@
         <v>45589.44950231481</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42269,7 +42269,7 @@
         <v>45114</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42326,7 +42326,7 @@
         <v>46009.77938657408</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42383,7 +42383,7 @@
         <v>46010</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42445,7 +42445,7 @@
         <v>45110.48509259259</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42502,7 +42502,7 @@
         <v>45166.66240740741</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42564,7 +42564,7 @@
         <v>44369</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42621,7 +42621,7 @@
         <v>45119.6334375</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42683,7 +42683,7 @@
         <v>45526</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42740,7 +42740,7 @@
         <v>44730.99318287037</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42802,7 +42802,7 @@
         <v>46058.53010416667</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         <v>45373.4712037037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42916,7 +42916,7 @@
         <v>45243.89579861111</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42973,7 +42973,7 @@
         <v>46058.55002314815</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43030,7 +43030,7 @@
         <v>45512</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43092,7 +43092,7 @@
         <v>45140.50491898148</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43154,7 +43154,7 @@
         <v>44915.64177083333</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43216,7 +43216,7 @@
         <v>45485.45513888889</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43278,7 +43278,7 @@
         <v>45644.59341435185</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43335,7 +43335,7 @@
         <v>44431.63481481482</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43392,7 +43392,7 @@
         <v>45603.43526620371</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43454,7 +43454,7 @@
         <v>45621.38265046296</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43516,7 +43516,7 @@
         <v>44942</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43573,7 +43573,7 @@
         <v>45399.66118055556</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43635,7 +43635,7 @@
         <v>45313.73107638889</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43692,7 +43692,7 @@
         <v>45574.45234953704</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43754,7 +43754,7 @@
         <v>45574.45362268519</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43816,7 +43816,7 @@
         <v>44370</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43873,7 +43873,7 @@
         <v>45609</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43935,7 +43935,7 @@
         <v>44377</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43997,7 +43997,7 @@
         <v>45754</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44059,7 +44059,7 @@
         <v>44599</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44116,7 +44116,7 @@
         <v>45616.51402777778</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44178,7 +44178,7 @@
         <v>45244.45287037037</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44235,7 +44235,7 @@
         <v>44970.50298611111</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44297,7 +44297,7 @@
         <v>45198.46518518519</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44359,7 +44359,7 @@
         <v>45685.42325231482</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44416,7 +44416,7 @@
         <v>44879.81773148148</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44473,7 +44473,7 @@
         <v>45560.40314814815</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44535,7 +44535,7 @@
         <v>45631.60126157408</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44597,7 +44597,7 @@
         <v>44819.43425925926</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         <v>45062.37524305555</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44721,7 +44721,7 @@
         <v>45404.89207175926</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44778,7 +44778,7 @@
         <v>44826</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44840,7 +44840,7 @@
         <v>44249</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44897,7 +44897,7 @@
         <v>45593</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44959,7 +44959,7 @@
         <v>45156</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45016,7 +45016,7 @@
         <v>45372.5358912037</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45073,7 +45073,7 @@
         <v>44820.5415162037</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45135,7 +45135,7 @@
         <v>44820.55396990741</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45197,7 +45197,7 @@
         <v>44708.380625</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45259,7 +45259,7 @@
         <v>45218.58079861111</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45316,7 +45316,7 @@
         <v>45632.01575231482</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45373,7 +45373,7 @@
         <v>45632.35070601852</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45435,7 +45435,7 @@
         <v>45243.68557870371</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45492,7 +45492,7 @@
         <v>45560.59856481481</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>45519</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>45071.44364583334</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45673,7 +45673,7 @@
         <v>45588.39844907408</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45730,7 +45730,7 @@
         <v>45638.99978009259</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45787,7 +45787,7 @@
         <v>45621.57195601852</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45849,7 +45849,7 @@
         <v>45317</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         <v>45680.5206712963</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45963,7 +45963,7 @@
         <v>45205.5616087963</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46025,7 +46025,7 @@
         <v>44581</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46087,7 +46087,7 @@
         <v>45603.42096064815</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46149,7 +46149,7 @@
         <v>45554.46881944445</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46206,7 +46206,7 @@
         <v>45253.47579861111</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46268,7 +46268,7 @@
         <v>45224</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46325,7 +46325,7 @@
         <v>45187.58707175926</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46387,7 +46387,7 @@
         <v>45631.99221064815</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46444,7 +46444,7 @@
         <v>45110</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46501,7 +46501,7 @@
         <v>44729.99359953704</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46563,7 +46563,7 @@
         <v>44960.65702546296</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46625,7 +46625,7 @@
         <v>44967.64229166666</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46682,7 +46682,7 @@
         <v>45258.49928240741</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46739,7 +46739,7 @@
         <v>45601.56384259259</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46796,7 +46796,7 @@
         <v>45531.30974537037</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46858,7 +46858,7 @@
         <v>45208</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46920,7 +46920,7 @@
         <v>45541.46269675926</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46982,7 +46982,7 @@
         <v>45622.51221064815</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47044,7 +47044,7 @@
         <v>45497</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47101,7 +47101,7 @@
         <v>45056.64452546297</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47163,7 +47163,7 @@
         <v>44336.3533912037</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47225,7 +47225,7 @@
         <v>45638.00060185185</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47282,7 +47282,7 @@
         <v>45602.4575</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47339,7 +47339,7 @@
         <v>45176.30253472222</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47396,7 +47396,7 @@
         <v>45594.37643518519</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47458,7 +47458,7 @@
         <v>45622.42880787037</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47520,7 +47520,7 @@
         <v>45622.43456018518</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47582,7 +47582,7 @@
         <v>45622.46479166667</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47644,7 +47644,7 @@
         <v>45687.40626157408</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47701,7 +47701,7 @@
         <v>45762.61923611111</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47758,7 +47758,7 @@
         <v>45602</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47815,7 +47815,7 @@
         <v>45043.39247685186</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47877,7 +47877,7 @@
         <v>45685.42758101852</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47934,7 +47934,7 @@
         <v>45593.60061342592</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47996,7 +47996,7 @@
         <v>45562.3693287037</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48058,7 +48058,7 @@
         <v>45744.38049768518</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48120,7 +48120,7 @@
         <v>45545.79224537037</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48177,7 +48177,7 @@
         <v>45784.4484837963</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48234,7 +48234,7 @@
         <v>45565.38796296297</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48291,7 +48291,7 @@
         <v>45230.56142361111</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48353,7 +48353,7 @@
         <v>45609.37012731482</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48415,7 +48415,7 @@
         <v>45784</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48472,7 +48472,7 @@
         <v>45134.43274305556</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48534,7 +48534,7 @@
         <v>45786</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48596,7 +48596,7 @@
         <v>45581.36174768519</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48658,7 +48658,7 @@
         <v>45560.50243055556</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48720,7 +48720,7 @@
         <v>45786</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48782,7 +48782,7 @@
         <v>45789</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48844,7 +48844,7 @@
         <v>45789</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48906,7 +48906,7 @@
         <v>45789</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48968,7 +48968,7 @@
         <v>45581.35516203703</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49030,7 +49030,7 @@
         <v>45581.37739583333</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49092,7 +49092,7 @@
         <v>45600.56336805555</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49149,7 +49149,7 @@
         <v>45789.66861111111</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49206,7 +49206,7 @@
         <v>45569.59144675926</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49268,7 +49268,7 @@
         <v>45486</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49325,7 +49325,7 @@
         <v>45786</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49387,7 +49387,7 @@
         <v>45460.62337962963</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49444,7 +49444,7 @@
         <v>45789</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         <v>45791</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49568,7 +49568,7 @@
         <v>45791.34212962963</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49630,7 +49630,7 @@
         <v>45791</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49692,7 +49692,7 @@
         <v>45791</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49754,7 +49754,7 @@
         <v>45524.62398148148</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49816,7 +49816,7 @@
         <v>45533.64466435185</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49878,7 +49878,7 @@
         <v>45791</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49940,7 +49940,7 @@
         <v>45790.34148148148</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50002,7 +50002,7 @@
         <v>45586.68033564815</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         <v>45786</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50116,7 +50116,7 @@
         <v>45792</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50178,7 +50178,7 @@
         <v>45775</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50240,7 +50240,7 @@
         <v>44915.6166087963</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50302,7 +50302,7 @@
         <v>45770.75799768518</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50359,7 +50359,7 @@
         <v>45791.39229166666</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50421,7 +50421,7 @@
         <v>45796.5571875</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50478,7 +50478,7 @@
         <v>45791.3471875</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50540,7 +50540,7 @@
         <v>45453</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50602,7 +50602,7 @@
         <v>45541.43202546296</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50664,7 +50664,7 @@
         <v>45776.37806712963</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50721,7 +50721,7 @@
         <v>45791.36640046296</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50783,7 +50783,7 @@
         <v>45796</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50845,7 +50845,7 @@
         <v>45799</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>

--- a/Översikt LUDVIKA.xlsx
+++ b/Översikt LUDVIKA.xlsx
@@ -575,7 +575,7 @@
         <v>45940</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         <v>45835.45435185185</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>45961</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>45786</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45993</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44937</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45841</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>45629.57699074074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45588.46537037037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>45981</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>45847</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>45786</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>45509.42555555556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45597.35666666667</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>45908</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>45940</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45981</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>45800</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45842</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>45945</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45993</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>45849.53956018519</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>45971</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>45611.45895833334</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>44435</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>45901.44197916667</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>45785</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>45607.62311342593</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>45791.34482638889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>45791.35133101852</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>44844.50239583333</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3736,14 +3736,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 725-2026</t>
+          <t>A 49676-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>46029.64107638889</v>
+        <v>45596.66278935185</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3757,11 +3757,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>13.9</v>
+        <v>3.5</v>
       </c>
       <c r="H34" t="n">
         <v>2</v>
@@ -3770,13 +3770,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3785,412 +3785,413 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>3</v>
       </c>
       <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Järpe
+Spillkråka</t>
+        </is>
+      </c>
+      <c r="S34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2085/artfynd/A 49676-2024 artfynd.xlsx", "A 49676-2024")</f>
+        <v/>
+      </c>
+      <c r="T34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2085/kartor/A 49676-2024 karta.png", "A 49676-2024")</f>
+        <v/>
+      </c>
+      <c r="V34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2085/klagomål/A 49676-2024 FSC-klagomål.docx", "A 49676-2024")</f>
+        <v/>
+      </c>
+      <c r="W34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2085/klagomålsmail/A 49676-2024 FSC-klagomål mail.docx", "A 49676-2024")</f>
+        <v/>
+      </c>
+      <c r="X34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2085/tillsyn/A 49676-2024 tillsynsbegäran.docx", "A 49676-2024")</f>
+        <v/>
+      </c>
+      <c r="Y34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2085/tillsynsmail/A 49676-2024 tillsynsbegäran mail.docx", "A 49676-2024")</f>
+        <v/>
+      </c>
+      <c r="Z34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2085/fåglar/A 49676-2024 prioriterade fågelarter.docx", "A 49676-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>A 725-2026</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>46029.64107638889</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>LUDVIKA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" s="2" t="inlineStr">
         <is>
           <t>Mosippa
 Vedtrappmossa
 Revlummer</t>
         </is>
       </c>
-      <c r="S34">
+      <c r="S35">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/artfynd/A 725-2026 artfynd.xlsx", "A 725-2026")</f>
         <v/>
       </c>
-      <c r="T34">
+      <c r="T35">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/kartor/A 725-2026 karta.png", "A 725-2026")</f>
         <v/>
       </c>
-      <c r="V34">
+      <c r="V35">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/klagomål/A 725-2026 FSC-klagomål.docx", "A 725-2026")</f>
         <v/>
       </c>
-      <c r="W34">
+      <c r="W35">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/klagomålsmail/A 725-2026 FSC-klagomål mail.docx", "A 725-2026")</f>
         <v/>
       </c>
-      <c r="X34">
+      <c r="X35">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/tillsyn/A 725-2026 tillsynsbegäran.docx", "A 725-2026")</f>
         <v/>
       </c>
-      <c r="Y34">
+      <c r="Y35">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/tillsynsmail/A 725-2026 tillsynsbegäran mail.docx", "A 725-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>A 43226-2025</t>
         </is>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B36" s="1" t="n">
         <v>45910</v>
       </c>
-      <c r="C35" s="1" t="n">
-        <v>46061</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>LUDVIKA</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
+      <c r="C36" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>LUDVIKA</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
         <v>1.1</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H36" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I36" t="n">
         <v>2</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J36" t="n">
         <v>1</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>3</v>
       </c>
-      <c r="R35" s="2" t="inlineStr">
+      <c r="R36" s="2" t="inlineStr">
         <is>
           <t>Tretåig hackspett
 Rävticka
 Rödgul trumpetsvamp</t>
         </is>
       </c>
-      <c r="S35">
+      <c r="S36">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/artfynd/A 43226-2025 artfynd.xlsx", "A 43226-2025")</f>
         <v/>
       </c>
-      <c r="T35">
+      <c r="T36">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/kartor/A 43226-2025 karta.png", "A 43226-2025")</f>
         <v/>
       </c>
-      <c r="V35">
+      <c r="V36">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/klagomål/A 43226-2025 FSC-klagomål.docx", "A 43226-2025")</f>
         <v/>
       </c>
-      <c r="W35">
+      <c r="W36">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/klagomålsmail/A 43226-2025 FSC-klagomål mail.docx", "A 43226-2025")</f>
         <v/>
       </c>
-      <c r="X35">
+      <c r="X36">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/tillsyn/A 43226-2025 tillsynsbegäran.docx", "A 43226-2025")</f>
         <v/>
       </c>
-      <c r="Y35">
+      <c r="Y36">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/tillsynsmail/A 43226-2025 tillsynsbegäran mail.docx", "A 43226-2025")</f>
         <v/>
       </c>
-      <c r="Z35">
+      <c r="Z36">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/fåglar/A 43226-2025 prioriterade fågelarter.docx", "A 43226-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>A 63164-2025</t>
         </is>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B37" s="1" t="n">
         <v>46010</v>
       </c>
-      <c r="C36" s="1" t="n">
-        <v>46061</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>LUDVIKA</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
+      <c r="C37" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>LUDVIKA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G36" t="n">
+      <c r="G37" t="n">
         <v>3.6</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>3</v>
       </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>3</v>
       </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>3</v>
       </c>
-      <c r="R36" s="2" t="inlineStr">
+      <c r="R37" s="2" t="inlineStr">
         <is>
           <t>Doftskinn
 Garnlav
 Vedskivlav</t>
         </is>
       </c>
-      <c r="S36">
+      <c r="S37">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/artfynd/A 63164-2025 artfynd.xlsx", "A 63164-2025")</f>
         <v/>
       </c>
-      <c r="T36">
+      <c r="T37">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/kartor/A 63164-2025 karta.png", "A 63164-2025")</f>
         <v/>
       </c>
-      <c r="V36">
+      <c r="V37">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/klagomål/A 63164-2025 FSC-klagomål.docx", "A 63164-2025")</f>
         <v/>
       </c>
-      <c r="W36">
+      <c r="W37">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/klagomålsmail/A 63164-2025 FSC-klagomål mail.docx", "A 63164-2025")</f>
         <v/>
       </c>
-      <c r="X36">
+      <c r="X37">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/tillsyn/A 63164-2025 tillsynsbegäran.docx", "A 63164-2025")</f>
         <v/>
       </c>
-      <c r="Y36">
+      <c r="Y37">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/tillsynsmail/A 63164-2025 tillsynsbegäran mail.docx", "A 63164-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>A 25293-2025</t>
         </is>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B38" s="1" t="n">
         <v>45800</v>
       </c>
-      <c r="C37" s="1" t="n">
-        <v>46061</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>LUDVIKA</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
+      <c r="C38" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>LUDVIKA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G37" t="n">
+      <c r="G38" t="n">
         <v>19.6</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>1</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J38" t="n">
         <v>1</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>2</v>
       </c>
-      <c r="R37" s="2" t="inlineStr">
+      <c r="R38" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Nästlav</t>
         </is>
       </c>
-      <c r="S37">
+      <c r="S38">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/artfynd/A 25293-2025 artfynd.xlsx", "A 25293-2025")</f>
         <v/>
       </c>
-      <c r="T37">
+      <c r="T38">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/kartor/A 25293-2025 karta.png", "A 25293-2025")</f>
         <v/>
       </c>
-      <c r="V37">
+      <c r="V38">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/klagomål/A 25293-2025 FSC-klagomål.docx", "A 25293-2025")</f>
         <v/>
       </c>
-      <c r="W37">
+      <c r="W38">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/klagomålsmail/A 25293-2025 FSC-klagomål mail.docx", "A 25293-2025")</f>
         <v/>
       </c>
-      <c r="X37">
+      <c r="X38">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/tillsyn/A 25293-2025 tillsynsbegäran.docx", "A 25293-2025")</f>
         <v/>
       </c>
-      <c r="Y37">
+      <c r="Y38">
         <f>HYPERLINK("https://klasma.github.io/Logging_2085/tillsynsmail/A 25293-2025 tillsynsbegäran mail.docx", "A 25293-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>A 49676-2024</t>
-        </is>
-      </c>
-      <c r="B38" s="1" t="n">
-        <v>45596.66278935185</v>
-      </c>
-      <c r="C38" s="1" t="n">
-        <v>46061</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>LUDVIKA</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>2</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2</v>
-      </c>
-      <c r="R38" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Spillkråka</t>
-        </is>
-      </c>
-      <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2085/artfynd/A 49676-2024 artfynd.xlsx", "A 49676-2024")</f>
-        <v/>
-      </c>
-      <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2085/kartor/A 49676-2024 karta.png", "A 49676-2024")</f>
-        <v/>
-      </c>
-      <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2085/klagomål/A 49676-2024 FSC-klagomål.docx", "A 49676-2024")</f>
-        <v/>
-      </c>
-      <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2085/klagomålsmail/A 49676-2024 FSC-klagomål mail.docx", "A 49676-2024")</f>
-        <v/>
-      </c>
-      <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2085/tillsyn/A 49676-2024 tillsynsbegäran.docx", "A 49676-2024")</f>
-        <v/>
-      </c>
-      <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2085/tillsynsmail/A 49676-2024 tillsynsbegäran mail.docx", "A 49676-2024")</f>
-        <v/>
-      </c>
-      <c r="Z38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2085/fåglar/A 49676-2024 prioriterade fågelarter.docx", "A 49676-2024")</f>
         <v/>
       </c>
     </row>
@@ -4204,7 +4205,7 @@
         <v>45940</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4299,7 +4300,7 @@
         <v>45842</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4394,7 +4395,7 @@
         <v>45971</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4489,7 +4490,7 @@
         <v>45978</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4584,7 +4585,7 @@
         <v>45940</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4675,7 +4676,7 @@
         <v>45978</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4770,7 +4771,7 @@
         <v>46009.77782407407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4856,7 +4857,7 @@
         <v>45463</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4951,7 +4952,7 @@
         <v>44998.36106481482</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5037,7 +5038,7 @@
         <v>45770</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5128,7 +5129,7 @@
         <v>44441</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5213,7 +5214,7 @@
         <v>44571</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5303,7 +5304,7 @@
         <v>44694</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5393,7 +5394,7 @@
         <v>45373.61137731482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5478,7 +5479,7 @@
         <v>45189</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5568,7 +5569,7 @@
         <v>44693</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5658,7 +5659,7 @@
         <v>44888</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5748,7 +5749,7 @@
         <v>45541.54527777778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5838,7 +5839,7 @@
         <v>45518.38504629629</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5923,7 +5924,7 @@
         <v>45800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6013,7 +6014,7 @@
         <v>45911</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6103,7 +6104,7 @@
         <v>45919</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6193,7 +6194,7 @@
         <v>45929</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6283,7 +6284,7 @@
         <v>45930.48451388889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6373,7 +6374,7 @@
         <v>45093</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6463,7 +6464,7 @@
         <v>45596.63347222222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6553,7 +6554,7 @@
         <v>45945</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6643,7 +6644,7 @@
         <v>45947</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6737,7 +6738,7 @@
         <v>45575.77649305556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6826,7 +6827,7 @@
         <v>45825</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6916,7 +6917,7 @@
         <v>45089</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7001,7 +7002,7 @@
         <v>45840</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7091,7 +7092,7 @@
         <v>44560</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7181,7 +7182,7 @@
         <v>45866</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7270,7 +7271,7 @@
         <v>45943</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7360,7 +7361,7 @@
         <v>45971</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7454,7 +7455,7 @@
         <v>45974</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7548,7 +7549,7 @@
         <v>45321</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7633,7 +7634,7 @@
         <v>46031.41959490741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7718,7 +7719,7 @@
         <v>45993</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7812,7 +7813,7 @@
         <v>45761.39600694444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7901,7 +7902,7 @@
         <v>45992.950625</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7986,7 +7987,7 @@
         <v>44706</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8071,7 +8072,7 @@
         <v>46021</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8156,7 +8157,7 @@
         <v>46008</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8246,7 +8247,7 @@
         <v>46009.56876157408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8335,7 +8336,7 @@
         <v>45105</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8429,7 +8430,7 @@
         <v>45761</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8519,7 +8520,7 @@
         <v>45777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8609,7 +8610,7 @@
         <v>45791</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8703,7 +8704,7 @@
         <v>45791.3395949074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8793,7 +8794,7 @@
         <v>45791.35438657407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8883,7 +8884,7 @@
         <v>45791.36149305556</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8973,7 +8974,7 @@
         <v>44831</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9063,7 +9064,7 @@
         <v>44281.58608796296</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9125,7 +9126,7 @@
         <v>44302</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9182,7 +9183,7 @@
         <v>44358</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9244,7 +9245,7 @@
         <v>44516</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9301,7 +9302,7 @@
         <v>44447</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9358,7 +9359,7 @@
         <v>44404.87238425926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9415,7 +9416,7 @@
         <v>44771.62452546296</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9472,7 +9473,7 @@
         <v>44244.68400462963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9529,7 +9530,7 @@
         <v>44344.64224537037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9591,7 +9592,7 @@
         <v>44322.48659722223</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9653,7 +9654,7 @@
         <v>44336</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9710,7 +9711,7 @@
         <v>44244.68228009259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9767,7 +9768,7 @@
         <v>44452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9824,7 +9825,7 @@
         <v>44869</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9881,7 +9882,7 @@
         <v>44502.71049768518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9938,7 +9939,7 @@
         <v>44503.53900462963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10000,7 +10001,7 @@
         <v>44550.55576388889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10062,7 +10063,7 @@
         <v>44362</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10124,7 +10125,7 @@
         <v>44370</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10186,7 +10187,7 @@
         <v>44387</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10248,7 +10249,7 @@
         <v>44368.49107638889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10305,7 +10306,7 @@
         <v>44370</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10367,7 +10368,7 @@
         <v>44456</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10429,7 +10430,7 @@
         <v>44643</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10486,7 +10487,7 @@
         <v>44459.29900462963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10548,7 +10549,7 @@
         <v>44730.99023148148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10610,7 +10611,7 @@
         <v>44376.4954050926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10672,7 +10673,7 @@
         <v>44482</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10729,7 +10730,7 @@
         <v>44771.62211805556</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10786,7 +10787,7 @@
         <v>44730.92502314815</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10848,7 +10849,7 @@
         <v>44370</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10905,7 +10906,7 @@
         <v>44397</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10967,7 +10968,7 @@
         <v>44377</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11029,7 +11030,7 @@
         <v>44851.3506712963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11086,7 +11087,7 @@
         <v>44872</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11148,7 +11149,7 @@
         <v>44872.4658912037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11210,7 +11211,7 @@
         <v>44720</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11267,7 +11268,7 @@
         <v>44560.42800925926</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11329,7 +11330,7 @@
         <v>44658</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11386,7 +11387,7 @@
         <v>44827.80170138889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11448,7 +11449,7 @@
         <v>44590.92709490741</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11505,7 +11506,7 @@
         <v>44616.7841550926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11562,7 +11563,7 @@
         <v>44706</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11624,7 +11625,7 @@
         <v>44785</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11686,7 +11687,7 @@
         <v>44330.486875</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11748,7 +11749,7 @@
         <v>44420</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11805,7 +11806,7 @@
         <v>44439</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11862,7 +11863,7 @@
         <v>44386</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11924,7 +11925,7 @@
         <v>44386</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11986,7 +11987,7 @@
         <v>44237</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12043,7 +12044,7 @@
         <v>44482.46922453704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12100,7 +12101,7 @@
         <v>44508</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12162,7 +12163,7 @@
         <v>44470</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12219,7 +12220,7 @@
         <v>44715.63222222222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12281,7 +12282,7 @@
         <v>44482.46025462963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12338,7 +12339,7 @@
         <v>44872</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12400,7 +12401,7 @@
         <v>45594.57820601852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12457,7 +12458,7 @@
         <v>44841.75935185186</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12514,7 +12515,7 @@
         <v>44893</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12571,7 +12572,7 @@
         <v>44477</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12628,7 +12629,7 @@
         <v>45349</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12710,7 +12711,7 @@
         <v>45212.65407407407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12767,7 +12768,7 @@
         <v>45569</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12829,7 +12830,7 @@
         <v>45594.5666550926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12891,7 +12892,7 @@
         <v>45594.37241898148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12953,7 +12954,7 @@
         <v>44413</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13010,7 +13011,7 @@
         <v>44711</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13072,7 +13073,7 @@
         <v>45317.4196875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13129,7 +13130,7 @@
         <v>45611.45319444445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13191,7 +13192,7 @@
         <v>45572.4962037037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13253,7 +13254,7 @@
         <v>45622.44318287037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13315,7 +13316,7 @@
         <v>45219.37885416667</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13377,7 +13378,7 @@
         <v>45761.67243055555</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13434,7 +13435,7 @@
         <v>45687.39811342592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13491,7 +13492,7 @@
         <v>45510.51506944445</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13548,7 +13549,7 @@
         <v>45531.30570601852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13610,7 +13611,7 @@
         <v>45512.44429398148</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13672,7 +13673,7 @@
         <v>45761</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13734,7 +13735,7 @@
         <v>45645</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13796,7 +13797,7 @@
         <v>44844.62275462963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13858,7 +13859,7 @@
         <v>44852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13915,7 +13916,7 @@
         <v>44960.65628472222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13977,7 +13978,7 @@
         <v>45769</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14039,7 +14040,7 @@
         <v>45737.49886574074</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14101,7 +14102,7 @@
         <v>45226.4590625</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14163,7 +14164,7 @@
         <v>45519</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14220,7 +14221,7 @@
         <v>45629.60636574074</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14282,7 +14283,7 @@
         <v>44730.98890046297</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14344,7 +14345,7 @@
         <v>45450</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14401,7 +14402,7 @@
         <v>45105</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14458,7 +14459,7 @@
         <v>45638.46208333333</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14520,7 +14521,7 @@
         <v>45708.43793981482</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14577,7 +14578,7 @@
         <v>44859</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14639,7 +14640,7 @@
         <v>44960</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14696,7 +14697,7 @@
         <v>45596.65178240741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14758,7 +14759,7 @@
         <v>44895</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14820,7 +14821,7 @@
         <v>45799</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14882,7 +14883,7 @@
         <v>45629.55177083334</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14944,7 +14945,7 @@
         <v>45371.61341435185</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15001,7 +15002,7 @@
         <v>45791.37006944444</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15063,7 +15064,7 @@
         <v>45791.3942824074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15125,7 +15126,7 @@
         <v>45798.59552083333</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15187,7 +15188,7 @@
         <v>45799</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15249,7 +15250,7 @@
         <v>45884</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15311,7 +15312,7 @@
         <v>45884</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15373,7 +15374,7 @@
         <v>45541.41780092593</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15435,7 +15436,7 @@
         <v>45799</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15497,7 +15498,7 @@
         <v>44393</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15559,7 +15560,7 @@
         <v>45106</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15616,7 +15617,7 @@
         <v>45499</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15673,7 +15674,7 @@
         <v>45799</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15735,7 +15736,7 @@
         <v>45798</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15797,7 +15798,7 @@
         <v>45754</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15859,7 +15860,7 @@
         <v>45349</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15921,7 +15922,7 @@
         <v>45349</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15983,7 +15984,7 @@
         <v>45798</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16045,7 +16046,7 @@
         <v>45161.42324074074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16107,7 +16108,7 @@
         <v>45803</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16169,7 +16170,7 @@
         <v>45799</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16231,7 +16232,7 @@
         <v>45803</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16293,7 +16294,7 @@
         <v>45803</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16355,7 +16356,7 @@
         <v>45800</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16417,7 +16418,7 @@
         <v>44264</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16474,7 +16475,7 @@
         <v>45800</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16531,7 +16532,7 @@
         <v>45622.43274305556</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16593,7 +16594,7 @@
         <v>45646.40943287037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16650,7 +16651,7 @@
         <v>45800</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16712,7 +16713,7 @@
         <v>45800</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16774,7 +16775,7 @@
         <v>45607.36243055556</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16836,7 +16837,7 @@
         <v>45800</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16898,7 +16899,7 @@
         <v>45800</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16960,7 +16961,7 @@
         <v>45800</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17022,7 +17023,7 @@
         <v>45625.42575231481</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17079,7 +17080,7 @@
         <v>45208.35689814815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17141,7 +17142,7 @@
         <v>45805</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17203,7 +17204,7 @@
         <v>45805.65954861111</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17265,7 +17266,7 @@
         <v>45807.39702546296</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17322,7 +17323,7 @@
         <v>45208</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17384,7 +17385,7 @@
         <v>45811.42434027778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17441,7 +17442,7 @@
         <v>45810.44368055555</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17503,7 +17504,7 @@
         <v>44859.49887731481</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17565,7 +17566,7 @@
         <v>45810</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17627,7 +17628,7 @@
         <v>45579.35708333334</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17684,7 +17685,7 @@
         <v>45810.59527777778</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17746,7 +17747,7 @@
         <v>45810.34362268518</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17808,7 +17809,7 @@
         <v>44929</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17870,7 +17871,7 @@
         <v>45813</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17932,7 +17933,7 @@
         <v>45569.59005787037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17994,7 +17995,7 @@
         <v>45811.57329861111</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18051,7 +18052,7 @@
         <v>44364.63512731482</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18113,7 +18114,7 @@
         <v>45860</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18175,7 +18176,7 @@
         <v>45813</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18237,7 +18238,7 @@
         <v>45813</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18299,7 +18300,7 @@
         <v>45813</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18361,7 +18362,7 @@
         <v>45813</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18423,7 +18424,7 @@
         <v>45813</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18485,7 +18486,7 @@
         <v>45813</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18547,7 +18548,7 @@
         <v>45891.41975694444</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18609,7 +18610,7 @@
         <v>45895.00098379629</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18666,7 +18667,7 @@
         <v>45560.45458333333</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18728,7 +18729,7 @@
         <v>45576</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18790,7 +18791,7 @@
         <v>45562.53986111111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18852,7 +18853,7 @@
         <v>44439.68940972222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18909,7 +18910,7 @@
         <v>45603.4574074074</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18971,7 +18972,7 @@
         <v>45574</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19033,7 +19034,7 @@
         <v>44978</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19090,7 +19091,7 @@
         <v>45898</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19152,7 +19153,7 @@
         <v>45898</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19214,7 +19215,7 @@
         <v>44890</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19276,7 +19277,7 @@
         <v>45901.31774305556</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19338,7 +19339,7 @@
         <v>45898</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19400,7 +19401,7 @@
         <v>45898.60778935185</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19462,7 +19463,7 @@
         <v>45789.67512731482</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19519,7 +19520,7 @@
         <v>45898</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19581,7 +19582,7 @@
         <v>45819</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19643,7 +19644,7 @@
         <v>45903.39708333334</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19705,7 +19706,7 @@
         <v>45903.41763888889</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19767,7 +19768,7 @@
         <v>45191.34273148148</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19829,7 +19830,7 @@
         <v>45903</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19891,7 +19892,7 @@
         <v>45902</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19953,7 +19954,7 @@
         <v>45903</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20015,7 +20016,7 @@
         <v>45903.55486111111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20077,7 +20078,7 @@
         <v>45902.67721064815</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20134,7 +20135,7 @@
         <v>45902.78278935186</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20191,7 +20192,7 @@
         <v>45820.38174768518</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20248,7 +20249,7 @@
         <v>45868.4570949074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20305,7 +20306,7 @@
         <v>44560.4366087963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20367,7 +20368,7 @@
         <v>45904.70763888889</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20424,7 +20425,7 @@
         <v>45904.59947916667</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20486,7 +20487,7 @@
         <v>45623.64104166667</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20548,7 +20549,7 @@
         <v>45825.37844907407</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20605,7 +20606,7 @@
         <v>45824.66146990741</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20662,7 +20663,7 @@
         <v>45744.38216435185</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20724,7 +20725,7 @@
         <v>45909.45607638889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20781,7 +20782,7 @@
         <v>45152.36019675926</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20843,7 +20844,7 @@
         <v>45910</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20905,7 +20906,7 @@
         <v>45911.48769675926</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20967,7 +20968,7 @@
         <v>45911.49506944444</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21029,7 +21030,7 @@
         <v>45910.91788194444</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21086,7 +21087,7 @@
         <v>45911.43200231482</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21148,7 +21149,7 @@
         <v>45910.3044212963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21210,7 +21211,7 @@
         <v>45911.43902777778</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21272,7 +21273,7 @@
         <v>45910.86336805556</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21329,7 +21330,7 @@
         <v>45827</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21391,7 +21392,7 @@
         <v>45827</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21453,7 +21454,7 @@
         <v>45911</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21515,7 +21516,7 @@
         <v>44515.48929398148</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21577,7 +21578,7 @@
         <v>45915</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21639,7 +21640,7 @@
         <v>45826</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21701,7 +21702,7 @@
         <v>44893.675</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21758,7 +21759,7 @@
         <v>44994</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21815,7 +21816,7 @@
         <v>45826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21877,7 +21878,7 @@
         <v>45502</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21934,7 +21935,7 @@
         <v>44405.60167824074</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21991,7 +21992,7 @@
         <v>45827</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22053,7 +22054,7 @@
         <v>45827</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22115,7 +22116,7 @@
         <v>45747.46331018519</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22177,7 +22178,7 @@
         <v>45917.59390046296</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22234,7 +22235,7 @@
         <v>45916.0008912037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22291,7 +22292,7 @@
         <v>45831.59947916667</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22353,7 +22354,7 @@
         <v>45831.58627314815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22415,7 +22416,7 @@
         <v>45915.99416666666</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22472,7 +22473,7 @@
         <v>45831.6599537037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22529,7 +22530,7 @@
         <v>45063</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22591,7 +22592,7 @@
         <v>45911</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22653,7 +22654,7 @@
         <v>45918.47898148148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22715,7 +22716,7 @@
         <v>45919</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22777,7 +22778,7 @@
         <v>45831</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22839,7 +22840,7 @@
         <v>45918.65405092593</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22901,7 +22902,7 @@
         <v>45902</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22963,7 +22964,7 @@
         <v>45923</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23025,7 +23026,7 @@
         <v>45832</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23087,7 +23088,7 @@
         <v>45923.32206018519</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23144,7 +23145,7 @@
         <v>45321</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23201,7 +23202,7 @@
         <v>45923.64064814815</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23263,7 +23264,7 @@
         <v>45131</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23320,7 +23321,7 @@
         <v>45832</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23382,7 +23383,7 @@
         <v>45912</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23444,7 +23445,7 @@
         <v>45924.43376157407</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23506,7 +23507,7 @@
         <v>45253.65673611111</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23568,7 +23569,7 @@
         <v>45924</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23630,7 +23631,7 @@
         <v>45833</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23687,7 +23688,7 @@
         <v>45208.65275462963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23744,7 +23745,7 @@
         <v>45832</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23806,7 +23807,7 @@
         <v>45512.48011574074</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23868,7 +23869,7 @@
         <v>45925</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23925,7 +23926,7 @@
         <v>45834.57716435185</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23982,7 +23983,7 @@
         <v>45924.45159722222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24044,7 +24045,7 @@
         <v>45924.46261574074</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24106,7 +24107,7 @@
         <v>45924.45614583333</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24168,7 +24169,7 @@
         <v>45924.55571759259</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24230,7 +24231,7 @@
         <v>45644.59155092593</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24287,7 +24288,7 @@
         <v>45246</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24344,7 +24345,7 @@
         <v>45929.60186342592</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24406,7 +24407,7 @@
         <v>45835</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24468,7 +24469,7 @@
         <v>45611.55626157407</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24530,7 +24531,7 @@
         <v>45926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24592,7 +24593,7 @@
         <v>45835</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24654,7 +24655,7 @@
         <v>45926</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24716,7 +24717,7 @@
         <v>45595.33203703703</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24773,7 +24774,7 @@
         <v>45926</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24835,7 +24836,7 @@
         <v>45926.58377314815</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24897,7 +24898,7 @@
         <v>45562.53810185185</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24959,7 +24960,7 @@
         <v>45562.58427083334</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25021,7 +25022,7 @@
         <v>45594.55173611111</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25083,7 +25084,7 @@
         <v>44916.67578703703</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25145,7 +25146,7 @@
         <v>45926</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25207,7 +25208,7 @@
         <v>45926</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25269,7 +25270,7 @@
         <v>45210</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25331,7 +25332,7 @@
         <v>45210</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25393,7 +25394,7 @@
         <v>45202.59850694444</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25455,7 +25456,7 @@
         <v>45838</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25517,7 +25518,7 @@
         <v>45621.62696759259</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25579,7 +25580,7 @@
         <v>45933.48107638889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25636,7 +25637,7 @@
         <v>45840</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25698,7 +25699,7 @@
         <v>45936.36644675926</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25760,7 +25761,7 @@
         <v>45936.45299768518</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25822,7 +25823,7 @@
         <v>45644.44615740741</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25879,7 +25880,7 @@
         <v>45716.41461805555</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25941,7 +25942,7 @@
         <v>45840</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25998,7 +25999,7 @@
         <v>45936.36597222222</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26060,7 +26061,7 @@
         <v>45936.46136574074</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26122,7 +26123,7 @@
         <v>45611.551875</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26184,7 +26185,7 @@
         <v>45637.99482638889</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26241,7 +26242,7 @@
         <v>44859.42164351852</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26303,7 +26304,7 @@
         <v>45840</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26365,7 +26366,7 @@
         <v>44687.67511574074</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26422,7 +26423,7 @@
         <v>45940</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26484,7 +26485,7 @@
         <v>45940</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26546,7 +26547,7 @@
         <v>45940</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26608,7 +26609,7 @@
         <v>45845</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26670,7 +26671,7 @@
         <v>45502.30283564814</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26732,7 +26733,7 @@
         <v>45845</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26794,7 +26795,7 @@
         <v>45562.40503472222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26851,7 +26852,7 @@
         <v>45846</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26913,7 +26914,7 @@
         <v>45944.93016203704</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26970,7 +26971,7 @@
         <v>44789</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27027,7 +27028,7 @@
         <v>45847</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27089,7 +27090,7 @@
         <v>44893.67267361111</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27146,7 +27147,7 @@
         <v>45847</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27208,7 +27209,7 @@
         <v>44552</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27265,7 +27266,7 @@
         <v>45849</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27327,7 +27328,7 @@
         <v>45474.31796296296</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27384,7 +27385,7 @@
         <v>45189</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27441,7 +27442,7 @@
         <v>45849</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27503,7 +27504,7 @@
         <v>45849</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27565,7 +27566,7 @@
         <v>45525.56513888889</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27622,7 +27623,7 @@
         <v>45629</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27684,7 +27685,7 @@
         <v>45589.44649305556</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27741,7 +27742,7 @@
         <v>45951.41353009259</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27798,7 +27799,7 @@
         <v>45576</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27860,7 +27861,7 @@
         <v>45810</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27922,7 +27923,7 @@
         <v>45825</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27984,7 +27985,7 @@
         <v>45856</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28046,7 +28047,7 @@
         <v>44923.35560185185</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28103,7 +28104,7 @@
         <v>45512</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28165,7 +28166,7 @@
         <v>45863</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28227,7 +28228,7 @@
         <v>45863</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28289,7 +28290,7 @@
         <v>45862</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28351,7 +28352,7 @@
         <v>45863</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28413,7 +28414,7 @@
         <v>45832</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28475,7 +28476,7 @@
         <v>45832</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28537,7 +28538,7 @@
         <v>44825.64709490741</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28599,7 +28600,7 @@
         <v>45952.37715277778</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28656,7 +28657,7 @@
         <v>45832</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28718,7 +28719,7 @@
         <v>45840</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28780,7 +28781,7 @@
         <v>45840</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28842,7 +28843,7 @@
         <v>45849</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28904,7 +28905,7 @@
         <v>45840</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28966,7 +28967,7 @@
         <v>44680</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29028,7 +29029,7 @@
         <v>44459</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29085,7 +29086,7 @@
         <v>45869</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29147,7 +29148,7 @@
         <v>45869</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29209,7 +29210,7 @@
         <v>45869</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29271,7 +29272,7 @@
         <v>45952.01278935185</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29328,7 +29329,7 @@
         <v>45954</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29390,7 +29391,7 @@
         <v>45954</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29452,7 +29453,7 @@
         <v>45860</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29514,7 +29515,7 @@
         <v>45567.45354166667</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29576,7 +29577,7 @@
         <v>45869</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29638,7 +29639,7 @@
         <v>45301</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29695,7 +29696,7 @@
         <v>45301</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29752,7 +29753,7 @@
         <v>45954.43010416667</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29814,7 +29815,7 @@
         <v>45954</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29876,7 +29877,7 @@
         <v>45957.34634259259</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29938,7 +29939,7 @@
         <v>45954.56233796296</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29995,7 +29996,7 @@
         <v>45297</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30052,7 +30053,7 @@
         <v>45954</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30114,7 +30115,7 @@
         <v>45957</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30176,7 +30177,7 @@
         <v>45957</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30238,7 +30239,7 @@
         <v>45954.56762731481</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30295,7 +30296,7 @@
         <v>45954.43126157407</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30357,7 +30358,7 @@
         <v>45954</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30419,7 +30420,7 @@
         <v>45954.38309027778</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30476,7 +30477,7 @@
         <v>45957</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30538,7 +30539,7 @@
         <v>45337</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30595,7 +30596,7 @@
         <v>45954</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30652,7 +30653,7 @@
         <v>45954</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30709,7 +30710,7 @@
         <v>45335.60587962963</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30766,7 +30767,7 @@
         <v>45152.3591087963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30828,7 +30829,7 @@
         <v>45629.60449074074</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30890,7 +30891,7 @@
         <v>45205</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30952,7 +30953,7 @@
         <v>45761.66826388889</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31009,7 +31010,7 @@
         <v>45639</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31071,7 +31072,7 @@
         <v>45512.3703125</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31133,7 +31134,7 @@
         <v>45875.51950231481</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31190,7 +31191,7 @@
         <v>45196.46915509259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31252,7 +31253,7 @@
         <v>45875.54314814815</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31309,7 +31310,7 @@
         <v>45954.41153935185</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31371,7 +31372,7 @@
         <v>44292</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31433,7 +31434,7 @@
         <v>45775.41047453704</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31490,7 +31491,7 @@
         <v>45762</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31552,7 +31553,7 @@
         <v>45960</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31614,7 +31615,7 @@
         <v>45960</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31676,7 +31677,7 @@
         <v>45219.4410300926</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31738,7 +31739,7 @@
         <v>45960</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31800,7 +31801,7 @@
         <v>44333</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31862,7 +31863,7 @@
         <v>45334</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31919,7 +31920,7 @@
         <v>45379.57112268519</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31981,7 +31982,7 @@
         <v>45924.44282407407</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32043,7 +32044,7 @@
         <v>45965.36070601852</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32100,7 +32101,7 @@
         <v>45965.42407407407</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32162,7 +32163,7 @@
         <v>45891.45390046296</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32224,7 +32225,7 @@
         <v>45963.40699074074</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32286,7 +32287,7 @@
         <v>45813</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32348,7 +32349,7 @@
         <v>45849</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32410,7 +32411,7 @@
         <v>45891.55704861111</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32472,7 +32473,7 @@
         <v>45966.41693287037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32534,7 +32535,7 @@
         <v>45099.49403935186</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32596,7 +32597,7 @@
         <v>45904.75224537037</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32653,7 +32654,7 @@
         <v>45971.50697916667</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32715,7 +32716,7 @@
         <v>45971</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32777,7 +32778,7 @@
         <v>44316</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32839,7 +32840,7 @@
         <v>45971.41719907407</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32901,7 +32902,7 @@
         <v>45113</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32963,7 +32964,7 @@
         <v>45968</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33025,7 +33026,7 @@
         <v>45968</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33087,7 +33088,7 @@
         <v>45968</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33149,7 +33150,7 @@
         <v>45971</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33211,7 +33212,7 @@
         <v>45971</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33273,7 +33274,7 @@
         <v>45883.65762731482</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33330,7 +33331,7 @@
         <v>45849</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33392,7 +33393,7 @@
         <v>45971.47175925926</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33454,7 +33455,7 @@
         <v>45971</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33516,7 +33517,7 @@
         <v>44994</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33578,7 +33579,7 @@
         <v>45971</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33640,7 +33641,7 @@
         <v>45971.47452546296</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33702,7 +33703,7 @@
         <v>45971</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33764,7 +33765,7 @@
         <v>45968</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33826,7 +33827,7 @@
         <v>45488</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33883,7 +33884,7 @@
         <v>45405</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33960,7 +33961,7 @@
         <v>45973</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34022,7 +34023,7 @@
         <v>45973</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34084,7 +34085,7 @@
         <v>45973.499375</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34146,7 +34147,7 @@
         <v>45973.50497685185</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34208,7 +34209,7 @@
         <v>44970.60710648148</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34270,7 +34271,7 @@
         <v>44970.61488425926</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34332,7 +34333,7 @@
         <v>45973</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34394,7 +34395,7 @@
         <v>45973</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34456,7 +34457,7 @@
         <v>45972</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34518,7 +34519,7 @@
         <v>45551.76079861111</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34575,7 +34576,7 @@
         <v>45974</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34637,7 +34638,7 @@
         <v>45975</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34699,7 +34700,7 @@
         <v>45974</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34761,7 +34762,7 @@
         <v>45974</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34823,7 +34824,7 @@
         <v>45975.59326388889</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34885,7 +34886,7 @@
         <v>45567.46006944445</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34947,7 +34948,7 @@
         <v>45537.44119212963</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35009,7 +35010,7 @@
         <v>45974</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35071,7 +35072,7 @@
         <v>45975</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35133,7 +35134,7 @@
         <v>45974</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35195,7 +35196,7 @@
         <v>45975.64983796296</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35257,7 +35258,7 @@
         <v>44853</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35319,7 +35320,7 @@
         <v>45978</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35381,7 +35382,7 @@
         <v>45601.56344907408</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35438,7 +35439,7 @@
         <v>45279</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35495,7 +35496,7 @@
         <v>45099.48079861111</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35557,7 +35558,7 @@
         <v>45568.00373842593</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35614,7 +35615,7 @@
         <v>45981</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35676,7 +35677,7 @@
         <v>45980</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35738,7 +35739,7 @@
         <v>45981</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35800,7 +35801,7 @@
         <v>45985</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35862,7 +35863,7 @@
         <v>44825.88506944444</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35919,7 +35920,7 @@
         <v>45576</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35981,7 +35982,7 @@
         <v>45246</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36038,7 +36039,7 @@
         <v>45043</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36100,7 +36101,7 @@
         <v>46029.58525462963</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36162,7 +36163,7 @@
         <v>45399.34371527778</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36224,7 +36225,7 @@
         <v>45399.42689814815</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36281,7 +36282,7 @@
         <v>45644.65412037037</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36343,7 +36344,7 @@
         <v>45152.35784722222</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36405,7 +36406,7 @@
         <v>45909.44322916667</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36462,7 +36463,7 @@
         <v>45989</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36519,7 +36520,7 @@
         <v>45988</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36581,7 +36582,7 @@
         <v>45929.6437962963</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36643,7 +36644,7 @@
         <v>44291</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36700,7 +36701,7 @@
         <v>45929.59041666667</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36762,7 +36763,7 @@
         <v>45288</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36819,7 +36820,7 @@
         <v>45989</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36881,7 +36882,7 @@
         <v>45989</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36943,7 +36944,7 @@
         <v>45887.62774305556</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37005,7 +37006,7 @@
         <v>45891.56180555555</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37067,7 +37068,7 @@
         <v>45988</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37129,7 +37130,7 @@
         <v>45581</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37191,7 +37192,7 @@
         <v>45988</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37253,7 +37254,7 @@
         <v>45743.4653587963</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37310,7 +37311,7 @@
         <v>45989</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37367,7 +37368,7 @@
         <v>45989</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37424,7 +37425,7 @@
         <v>45989</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37486,7 +37487,7 @@
         <v>45988.44615740741</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37563,7 +37564,7 @@
         <v>44903</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37620,7 +37621,7 @@
         <v>45579.33577546296</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37677,7 +37678,7 @@
         <v>45579.33912037037</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37734,7 +37735,7 @@
         <v>45579.34377314815</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37791,7 +37792,7 @@
         <v>45993</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37853,7 +37854,7 @@
         <v>45616.50763888889</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37915,7 +37916,7 @@
         <v>45993</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37977,7 +37978,7 @@
         <v>44879</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38039,7 +38040,7 @@
         <v>45638.31543981482</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38096,7 +38097,7 @@
         <v>45575.35040509259</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38158,7 +38159,7 @@
         <v>45575</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38220,7 +38221,7 @@
         <v>45995.51628472222</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38277,7 +38278,7 @@
         <v>45995.51954861111</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38339,7 +38340,7 @@
         <v>45995.50630787037</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38401,7 +38402,7 @@
         <v>45705.54684027778</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38458,7 +38459,7 @@
         <v>45112</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38520,7 +38521,7 @@
         <v>45198.41046296297</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38582,7 +38583,7 @@
         <v>45265</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38639,7 +38640,7 @@
         <v>46038.62740740741</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38696,7 +38697,7 @@
         <v>44865.36378472222</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38758,7 +38759,7 @@
         <v>46037</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38815,7 +38816,7 @@
         <v>44981.40171296296</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38872,7 +38873,7 @@
         <v>46001.66116898148</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38934,7 +38935,7 @@
         <v>46042.83335648148</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38991,7 +38992,7 @@
         <v>45961</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39053,7 +39054,7 @@
         <v>45481.9578125</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39110,7 +39111,7 @@
         <v>45562.36709490741</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39172,7 +39173,7 @@
         <v>45616.60813657408</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39234,7 +39235,7 @@
         <v>45644.45210648148</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39291,7 +39292,7 @@
         <v>45411.46208333333</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39353,7 +39354,7 @@
         <v>45679.36682870371</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39410,7 +39411,7 @@
         <v>44771.61702546296</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39467,7 +39468,7 @@
         <v>46001.66863425926</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39529,7 +39530,7 @@
         <v>45961</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39591,7 +39592,7 @@
         <v>46001.61622685185</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39653,7 +39654,7 @@
         <v>45624.59535879629</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39710,7 +39711,7 @@
         <v>45103.46510416667</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39767,7 +39768,7 @@
         <v>45775</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39829,7 +39830,7 @@
         <v>45166.70038194444</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39891,7 +39892,7 @@
         <v>45629.54122685185</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39953,7 +39954,7 @@
         <v>46002</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40015,7 +40016,7 @@
         <v>45520.63197916667</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40072,7 +40073,7 @@
         <v>46007</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40134,7 +40135,7 @@
         <v>46007</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40196,7 +40197,7 @@
         <v>44883</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40258,7 +40259,7 @@
         <v>45938.36746527778</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40320,7 +40321,7 @@
         <v>46007.69107638889</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40382,7 +40383,7 @@
         <v>45062.39581018518</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40444,7 +40445,7 @@
         <v>45168.36769675926</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40506,7 +40507,7 @@
         <v>46008</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40568,7 +40569,7 @@
         <v>46008</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40630,7 +40631,7 @@
         <v>45616.35984953704</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40692,7 +40693,7 @@
         <v>46009</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40754,7 +40755,7 @@
         <v>45765.67115740741</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40811,7 +40812,7 @@
         <v>45594.57032407408</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40873,7 +40874,7 @@
         <v>46009.44271990741</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40930,7 +40931,7 @@
         <v>46021</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40987,7 +40988,7 @@
         <v>45204</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41049,7 +41050,7 @@
         <v>45740.37754629629</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41106,7 +41107,7 @@
         <v>46008.69476851852</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41168,7 +41169,7 @@
         <v>46008</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41230,7 +41231,7 @@
         <v>46008</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41292,7 +41293,7 @@
         <v>45609</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41354,7 +41355,7 @@
         <v>46008</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41416,7 +41417,7 @@
         <v>46008.69097222222</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41478,7 +41479,7 @@
         <v>46008</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41540,7 +41541,7 @@
         <v>45225.40709490741</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41602,7 +41603,7 @@
         <v>45225.41042824074</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41664,7 +41665,7 @@
         <v>46030</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41721,7 +41722,7 @@
         <v>44929.61017361111</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41778,7 +41779,7 @@
         <v>45575.34820601852</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41840,7 +41841,7 @@
         <v>44476</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41902,7 +41903,7 @@
         <v>46010.60270833333</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41964,7 +41965,7 @@
         <v>44533</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42026,7 +42027,7 @@
         <v>45569.59278935185</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42088,7 +42089,7 @@
         <v>45761</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42150,7 +42151,7 @@
         <v>46010</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42212,7 +42213,7 @@
         <v>45589.44950231481</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42269,7 +42270,7 @@
         <v>45114</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42326,7 +42327,7 @@
         <v>46009.77938657408</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42383,7 +42384,7 @@
         <v>46010</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42445,7 +42446,7 @@
         <v>45110.48509259259</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42502,7 +42503,7 @@
         <v>45166.66240740741</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42564,7 +42565,7 @@
         <v>44369</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42621,7 +42622,7 @@
         <v>45119.6334375</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42683,7 +42684,7 @@
         <v>45526</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42740,7 +42741,7 @@
         <v>44730.99318287037</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42802,7 +42803,7 @@
         <v>46058.53010416667</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42859,7 +42860,7 @@
         <v>45373.4712037037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42916,7 +42917,7 @@
         <v>45243.89579861111</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42973,7 +42974,7 @@
         <v>46058.55002314815</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43030,7 +43031,7 @@
         <v>45512</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43092,7 +43093,7 @@
         <v>45140.50491898148</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43154,7 +43155,7 @@
         <v>44915.64177083333</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43216,7 +43217,7 @@
         <v>45485.45513888889</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43278,7 +43279,7 @@
         <v>45644.59341435185</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43335,7 +43336,7 @@
         <v>44431.63481481482</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43392,7 +43393,7 @@
         <v>45603.43526620371</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43454,7 +43455,7 @@
         <v>45621.38265046296</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43516,7 +43517,7 @@
         <v>44942</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43573,7 +43574,7 @@
         <v>45399.66118055556</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43635,7 +43636,7 @@
         <v>45313.73107638889</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43692,7 +43693,7 @@
         <v>45574.45234953704</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43754,7 +43755,7 @@
         <v>45574.45362268519</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43816,7 +43817,7 @@
         <v>44370</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43873,7 +43874,7 @@
         <v>45609</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43935,7 +43936,7 @@
         <v>44377</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43997,7 +43998,7 @@
         <v>45754</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44059,7 +44060,7 @@
         <v>44599</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44116,7 +44117,7 @@
         <v>45616.51402777778</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44178,7 +44179,7 @@
         <v>45244.45287037037</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44235,7 +44236,7 @@
         <v>44970.50298611111</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44297,7 +44298,7 @@
         <v>45198.46518518519</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44359,7 +44360,7 @@
         <v>45685.42325231482</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44416,7 +44417,7 @@
         <v>44879.81773148148</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44473,7 +44474,7 @@
         <v>45560.40314814815</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44535,7 +44536,7 @@
         <v>45631.60126157408</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44597,7 +44598,7 @@
         <v>44819.43425925926</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44659,7 +44660,7 @@
         <v>45062.37524305555</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44721,7 +44722,7 @@
         <v>45404.89207175926</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44778,7 +44779,7 @@
         <v>44826</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44840,7 +44841,7 @@
         <v>44249</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44897,7 +44898,7 @@
         <v>45593</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44959,7 +44960,7 @@
         <v>45156</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45016,7 +45017,7 @@
         <v>45372.5358912037</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45073,7 +45074,7 @@
         <v>44820.5415162037</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45135,7 +45136,7 @@
         <v>44820.55396990741</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45197,7 +45198,7 @@
         <v>44708.380625</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45259,7 +45260,7 @@
         <v>45218.58079861111</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45316,7 +45317,7 @@
         <v>45632.01575231482</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45373,7 +45374,7 @@
         <v>45632.35070601852</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45435,7 +45436,7 @@
         <v>45243.68557870371</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45492,7 +45493,7 @@
         <v>45560.59856481481</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45554,7 +45555,7 @@
         <v>45519</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45611,7 +45612,7 @@
         <v>45071.44364583334</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45673,7 +45674,7 @@
         <v>45588.39844907408</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45730,7 +45731,7 @@
         <v>45638.99978009259</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45787,7 +45788,7 @@
         <v>45621.57195601852</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45849,7 +45850,7 @@
         <v>45317</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45906,7 +45907,7 @@
         <v>45680.5206712963</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45963,7 +45964,7 @@
         <v>45205.5616087963</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46025,7 +46026,7 @@
         <v>44581</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46087,7 +46088,7 @@
         <v>45603.42096064815</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46149,7 +46150,7 @@
         <v>45554.46881944445</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46206,7 +46207,7 @@
         <v>45253.47579861111</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46268,7 +46269,7 @@
         <v>45224</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46325,7 +46326,7 @@
         <v>45187.58707175926</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46387,7 +46388,7 @@
         <v>45631.99221064815</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46444,7 +46445,7 @@
         <v>45110</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46501,7 +46502,7 @@
         <v>44729.99359953704</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46563,7 +46564,7 @@
         <v>44960.65702546296</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46625,7 +46626,7 @@
         <v>44967.64229166666</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46682,7 +46683,7 @@
         <v>45258.49928240741</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46739,7 +46740,7 @@
         <v>45601.56384259259</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46796,7 +46797,7 @@
         <v>45531.30974537037</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46858,7 +46859,7 @@
         <v>45208</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46920,7 +46921,7 @@
         <v>45541.46269675926</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46982,7 +46983,7 @@
         <v>45622.51221064815</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47044,7 +47045,7 @@
         <v>45497</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47101,7 +47102,7 @@
         <v>45056.64452546297</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47163,7 +47164,7 @@
         <v>44336.3533912037</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47225,7 +47226,7 @@
         <v>45638.00060185185</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47282,7 +47283,7 @@
         <v>45602.4575</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47339,7 +47340,7 @@
         <v>45176.30253472222</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47396,7 +47397,7 @@
         <v>45594.37643518519</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47458,7 +47459,7 @@
         <v>45622.42880787037</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47520,7 +47521,7 @@
         <v>45622.43456018518</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47582,7 +47583,7 @@
         <v>45622.46479166667</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47644,7 +47645,7 @@
         <v>45687.40626157408</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47701,7 +47702,7 @@
         <v>45762.61923611111</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47758,7 +47759,7 @@
         <v>45602</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47815,7 +47816,7 @@
         <v>45043.39247685186</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47877,7 +47878,7 @@
         <v>45685.42758101852</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47934,7 +47935,7 @@
         <v>45593.60061342592</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47996,7 +47997,7 @@
         <v>45562.3693287037</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48058,7 +48059,7 @@
         <v>45744.38049768518</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48120,7 +48121,7 @@
         <v>45545.79224537037</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48177,7 +48178,7 @@
         <v>45784.4484837963</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48234,7 +48235,7 @@
         <v>45565.38796296297</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48291,7 +48292,7 @@
         <v>45230.56142361111</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48353,7 +48354,7 @@
         <v>45609.37012731482</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48415,7 +48416,7 @@
         <v>45784</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48472,7 +48473,7 @@
         <v>45134.43274305556</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48534,7 +48535,7 @@
         <v>45786</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48596,7 +48597,7 @@
         <v>45581.36174768519</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48658,7 +48659,7 @@
         <v>45560.50243055556</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48720,7 +48721,7 @@
         <v>45786</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48782,7 +48783,7 @@
         <v>45789</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48844,7 +48845,7 @@
         <v>45789</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48906,7 +48907,7 @@
         <v>45789</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48968,7 +48969,7 @@
         <v>45581.35516203703</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49030,7 +49031,7 @@
         <v>45581.37739583333</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49092,7 +49093,7 @@
         <v>45600.56336805555</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49149,7 +49150,7 @@
         <v>45789.66861111111</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49206,7 +49207,7 @@
         <v>45569.59144675926</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49268,7 +49269,7 @@
         <v>45486</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49325,7 +49326,7 @@
         <v>45786</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49387,7 +49388,7 @@
         <v>45460.62337962963</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49444,7 +49445,7 @@
         <v>45789</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49506,7 +49507,7 @@
         <v>45791</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49568,7 +49569,7 @@
         <v>45791.34212962963</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49630,7 +49631,7 @@
         <v>45791</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49692,7 +49693,7 @@
         <v>45791</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49754,7 +49755,7 @@
         <v>45524.62398148148</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49816,7 +49817,7 @@
         <v>45533.64466435185</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49878,7 +49879,7 @@
         <v>45791</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49940,7 +49941,7 @@
         <v>45790.34148148148</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50002,7 +50003,7 @@
         <v>45586.68033564815</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50059,7 +50060,7 @@
         <v>45786</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50116,7 +50117,7 @@
         <v>45792</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50178,7 +50179,7 @@
         <v>45775</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50240,7 +50241,7 @@
         <v>44915.6166087963</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50302,7 +50303,7 @@
         <v>45770.75799768518</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50359,7 +50360,7 @@
         <v>45791.39229166666</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50421,7 +50422,7 @@
         <v>45796.5571875</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50478,7 +50479,7 @@
         <v>45791.3471875</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50540,7 +50541,7 @@
         <v>45453</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50602,7 +50603,7 @@
         <v>45541.43202546296</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50664,7 +50665,7 @@
         <v>45776.37806712963</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50721,7 +50722,7 @@
         <v>45791.36640046296</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50783,7 +50784,7 @@
         <v>45796</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50845,7 +50846,7 @@
         <v>45799</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>

--- a/Översikt LUDVIKA.xlsx
+++ b/Översikt LUDVIKA.xlsx
@@ -575,7 +575,7 @@
         <v>45940</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         <v>45835.45435185185</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>45961</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>45786</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45993</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44937</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45841</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>45629.57699074074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45588.46537037037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>45981</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>45847</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>45786</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>45509.42555555556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45908</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>45940</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>45981</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>45597.35666666667</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>45842</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>45945</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>45993</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>45800</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>45849.53956018519</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>45930.48451388889</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>45971</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>45611.45895833334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44435</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>45901.44197916667</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45607.62311342593</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>45785</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45791.34482638889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>45791.35133101852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44844.50239583333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45926.58377314815</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>45910</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>46010</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>45596.66278935185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>46029.64107638889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>45842</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>45940</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>45971</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>45978</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>45940</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>45978</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>45463</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>46009.77782407407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44998.36106481482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>45770</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>45800</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44441</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44571</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>44694</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>45761.67243055555</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>45189</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44693</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44888</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>45541.54527777778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>45518.38504629629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>45911</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>45093</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>45919</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>45825</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>45840</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>45929</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44560</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>45575.77649305556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>45089</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>45945</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>45947</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>45866</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>45943</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>45971</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45974</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>45321</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>45761.39600694444</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>44706</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>45993</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>45992.950625</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>46008</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>46009.56876157408</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45105</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>46058.53010416667</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>46021</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>45596.63347222222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>46069</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>45373.61137731482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>46031.41959490741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>45761</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>45777</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>45791</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>45791.3395949074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>45791.35438657407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>45791.36149305556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44831</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>45800</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>44281.58608796296</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44302</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>44358</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>44516</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>44404.87238425926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>44447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>44771.62452546296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>44322.48659722223</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44344.64224537037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44336</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44452</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44869</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44502.71049768518</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44503.53900462963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>44550.55576388889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10317,7 +10317,7 @@
         <v>44362</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44370</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44387</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44368.49107638889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44370</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44456</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44643</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44459.29900462963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>44730.99023148148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44376.4954050926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44482</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44771.62211805556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44730.92502314815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44370</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>44397</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44851.3506712963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44872</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44872.4658912037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>44720</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>44560.42800925926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44658</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44827.80170138889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11703,7 +11703,7 @@
         <v>44590.92709490741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         <v>44616.7841550926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44706</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44785</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>44330.486875</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44420</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44439</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44386</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44386</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>44482.46922453704</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>44508</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12360,7 +12360,7 @@
         <v>44470</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>44715.63222222222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44482.46025462963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>45594.57820601852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44841.75935185186</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44477</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>45349</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44872</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>45212.65407407407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>45594.5666550926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>45594.37241898148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>44893</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>45611.45319444445</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44413</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44711</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>45317.4196875</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>45572.4962037037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>45219.37885416667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>45622.44318287037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         <v>45687.39811342592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>45569</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>45531.30570601852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>45512.44429398148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>45510.51506944445</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>44960.65628472222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>45645</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>45769</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>45737.49886574074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45519</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45226.4590625</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>45629.60636574074</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44730.98890046297</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45450</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>45105</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>45638.46208333333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>45629.55177083334</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>44960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>44895</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44859</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44393</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>45371.61341435185</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>45106</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>45754</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>45349</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45349</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>45161.42324074074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>45761</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>44264</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>45622.43274305556</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45646.40943287037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>44844.62275462963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>45208.35689814815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>45625.42575231481</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>44859.49887731481</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>45579.35708333334</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>45208</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44929</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>45884</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>45884</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44364.63512731482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>45541.41780092593</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>45799</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>45560.45458333333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>45576</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>45562.53986111111</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>45607.36243055556</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>44439.68940972222</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>45603.4574074074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>45574</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>45819</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44890</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>45820.38174768518</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>45825.37844907407</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>45191.34273148148</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>45824.66146990741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>45813</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>45827</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>45827</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>45860</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44560.4366087963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         <v>45623.64104166667</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>45826</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>45891.41975694444</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         <v>45826</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>45827</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>45827</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>45895.00098379629</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>45744.38216435185</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>45831.59947916667</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>45831.58627314815</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>45831.6599537037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>45152.36019675926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>45831</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18068,7 +18068,7 @@
         <v>45832</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>44515.48929398148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18192,7 +18192,7 @@
         <v>45832</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>45833</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>44978</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>44893.675</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>45832</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44994</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>45898</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45898</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45834.57716435185</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45502</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>44405.60167824074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45901.31774305556</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18901,7 +18901,7 @@
         <v>45898</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45898.60778935185</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>45747.46331018519</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>45789.67512731482</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>45898</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>45835</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>45835</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>45903.39708333334</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45903.41763888889</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>45903</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>45063</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45902</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>45903</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>45903.55486111111</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>45902.67721064815</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>45902.78278935186</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19878,7 +19878,7 @@
         <v>45868.4570949074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19935,7 +19935,7 @@
         <v>45904.70763888889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19992,7 +19992,7 @@
         <v>45904.59947916667</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>45838</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>45321</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>45131</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>45840</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>45253.65673611111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>45840</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>45208.65275462963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>45909.45607638889</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>45910</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>45911.48769675926</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>45512.48011574074</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>45911.49506944444</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20773,7 +20773,7 @@
         <v>45840</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>45910.91788194444</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45911.43200231482</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45910.3044212963</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45911.43902777778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>45845</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>45910.86336805556</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>45644.59155092593</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>45246</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21311,7 +21311,7 @@
         <v>45911</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21373,7 +21373,7 @@
         <v>45502.30283564814</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21435,7 +21435,7 @@
         <v>45915</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>45845</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>45846</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>45611.55626157407</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21683,7 +21683,7 @@
         <v>45847</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>45595.33203703703</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>45847</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>45562.53810185185</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>45562.58427083334</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
         <v>45594.55173611111</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
         <v>45849</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>45917.59390046296</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44916.67578703703</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>45849</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>45849</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>45916.0008912037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>45915.99416666666</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>45525.56513888889</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>45911</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45210</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>45210</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>45918.47898148148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>45919</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>45202.59850694444</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>45576</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45918.65405092593</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
         <v>45810</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23084,7 +23084,7 @@
         <v>45825</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>45856</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>45902</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>45923</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23332,7 +23332,7 @@
         <v>45621.62696759259</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>45923.32206018519</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>45923.64064814815</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>45512</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>45644.44615740741</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45716.41461805555</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>45912</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>45863</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>45863</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>45862</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>45924.43376157407</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>45863</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         <v>45611.551875</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24128,7 +24128,7 @@
         <v>45924</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>45832</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24252,7 +24252,7 @@
         <v>45832</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24314,7 +24314,7 @@
         <v>45637.99482638889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24371,7 +24371,7 @@
         <v>45832</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>45840</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>45840</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24557,7 +24557,7 @@
         <v>45925</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24614,7 +24614,7 @@
         <v>45849</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>45840</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>44859.42164351852</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44680</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24862,7 +24862,7 @@
         <v>45924.45159722222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>45924.46261574074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>45869</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>45924.45614583333</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>45869</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>45924.55571759259</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>45869</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25296,7 +25296,7 @@
         <v>45860</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>45567.45354166667</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>45869</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>44687.67511574074</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>45929.60186342592</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25601,7 +25601,7 @@
         <v>45926</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25663,7 +25663,7 @@
         <v>45926</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25725,7 +25725,7 @@
         <v>45926</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>45337</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>45761.66826388889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25901,7 +25901,7 @@
         <v>45926</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>45875.51950231481</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>45926</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26082,7 +26082,7 @@
         <v>45562.40503472222</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26139,7 +26139,7 @@
         <v>45875.54314814815</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>44789</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44893.67267361111</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26310,7 +26310,7 @@
         <v>44552</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26367,7 +26367,7 @@
         <v>45474.31796296296</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>45933.48107638889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>45189</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>45629</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>45589.44649305556</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45936.36644675926</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45936.45299768518</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26781,7 +26781,7 @@
         <v>45813</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>45849</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26905,7 +26905,7 @@
         <v>45936.36597222222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26967,7 +26967,7 @@
         <v>45936.46136574074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45883.65762731482</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45849</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44923.35560185185</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44825.64709490741</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>44459</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>45940</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27386,7 +27386,7 @@
         <v>45940</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27448,7 +27448,7 @@
         <v>45940</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45301</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45301</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45297</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45567.46006944445</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>45537.44119212963</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27805,7 +27805,7 @@
         <v>45944.93016203704</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27862,7 +27862,7 @@
         <v>45335.60587962963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27919,7 +27919,7 @@
         <v>45152.3591087963</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         <v>45629.60449074074</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45205</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45639</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28167,7 +28167,7 @@
         <v>45512.3703125</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28229,7 +28229,7 @@
         <v>45196.46915509259</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>45951.41353009259</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>44292</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>45775.41047453704</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28467,7 +28467,7 @@
         <v>45762</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28529,7 +28529,7 @@
         <v>45219.4410300926</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>44333</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>45334</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>45379.57112268519</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28772,7 +28772,7 @@
         <v>45952.37715277778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>45952.01278935185</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>45954</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>45954</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>45099.49403935186</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29072,7 +29072,7 @@
         <v>45954.43010416667</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>45954</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29196,7 +29196,7 @@
         <v>45957.34634259259</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>45954.56233796296</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29315,7 +29315,7 @@
         <v>45954</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>45957</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29439,7 +29439,7 @@
         <v>45957</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29501,7 +29501,7 @@
         <v>45954.56762731481</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29558,7 +29558,7 @@
         <v>45954.43126157407</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29620,7 +29620,7 @@
         <v>45954</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>45954.38309027778</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>44316</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>45113</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29863,7 +29863,7 @@
         <v>45957</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         <v>45954</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29982,7 +29982,7 @@
         <v>45954</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30039,7 +30039,7 @@
         <v>44994</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>45954.41153935185</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45488</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30220,7 +30220,7 @@
         <v>45405</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44970.60710648148</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>44970.61488425926</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30421,7 +30421,7 @@
         <v>45960</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30483,7 +30483,7 @@
         <v>45960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30545,7 +30545,7 @@
         <v>45551.76079861111</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>45960</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30664,7 +30664,7 @@
         <v>44853</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30726,7 +30726,7 @@
         <v>45924.44282407407</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30788,7 +30788,7 @@
         <v>45965.36070601852</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30845,7 +30845,7 @@
         <v>45601.56344907408</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30902,7 +30902,7 @@
         <v>45965.42407407407</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30964,7 +30964,7 @@
         <v>45891.45390046296</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         <v>45963.40699074074</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31088,7 +31088,7 @@
         <v>45279</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31145,7 +31145,7 @@
         <v>45891.55704861111</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>45099.48079861111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>45966.41693287037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31331,7 +31331,7 @@
         <v>45568.00373842593</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31388,7 +31388,7 @@
         <v>45904.75224537037</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31445,7 +31445,7 @@
         <v>45971.50697916667</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31507,7 +31507,7 @@
         <v>45971</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31569,7 +31569,7 @@
         <v>45971.41719907407</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31631,7 +31631,7 @@
         <v>45968</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31693,7 +31693,7 @@
         <v>45968</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>45968</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31817,7 +31817,7 @@
         <v>45971</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>45971</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>45971.47175925926</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45971</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>45971</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32127,7 +32127,7 @@
         <v>45971.47452546296</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32189,7 +32189,7 @@
         <v>45971</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32251,7 +32251,7 @@
         <v>44825.88506944444</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32308,7 +32308,7 @@
         <v>45968</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32370,7 +32370,7 @@
         <v>45576</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45246</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45973</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>45973</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>45973.499375</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32675,7 +32675,7 @@
         <v>45973.50497685185</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32737,7 +32737,7 @@
         <v>45973</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32799,7 +32799,7 @@
         <v>45973</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32861,7 +32861,7 @@
         <v>45972</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         <v>45043</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>45974</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33047,7 +33047,7 @@
         <v>45975</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33109,7 +33109,7 @@
         <v>45974</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33171,7 +33171,7 @@
         <v>45974</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33233,7 +33233,7 @@
         <v>45975.59326388889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33295,7 +33295,7 @@
         <v>45974</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33357,7 +33357,7 @@
         <v>45975</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33419,7 +33419,7 @@
         <v>45974</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>45975.64983796296</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33543,7 +33543,7 @@
         <v>45399.34371527778</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33605,7 +33605,7 @@
         <v>45399.42689814815</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33662,7 +33662,7 @@
         <v>45978</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33724,7 +33724,7 @@
         <v>45644.65412037037</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>45152.35784722222</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33848,7 +33848,7 @@
         <v>44291</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>45288</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33962,7 +33962,7 @@
         <v>45581</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34024,7 +34024,7 @@
         <v>45981</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>45743.4653587963</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>45980</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34205,7 +34205,7 @@
         <v>45981</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34267,7 +34267,7 @@
         <v>45985</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34329,7 +34329,7 @@
         <v>44903</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         <v>45579.33577546296</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34443,7 +34443,7 @@
         <v>45579.33912037037</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34500,7 +34500,7 @@
         <v>45579.34377314815</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34557,7 +34557,7 @@
         <v>45616.50763888889</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34619,7 +34619,7 @@
         <v>45909.44322916667</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34676,7 +34676,7 @@
         <v>45989</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>45988</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         <v>45929.6437962963</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34857,7 +34857,7 @@
         <v>45929.59041666667</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34919,7 +34919,7 @@
         <v>45989</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34981,7 +34981,7 @@
         <v>45989</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>45887.62774305556</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35105,7 +35105,7 @@
         <v>45891.56180555555</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         <v>45988</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35229,7 +35229,7 @@
         <v>45988</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35291,7 +35291,7 @@
         <v>45989</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
         <v>45989</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35405,7 +35405,7 @@
         <v>45989</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35467,7 +35467,7 @@
         <v>45988.44615740741</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35544,7 +35544,7 @@
         <v>44879</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35606,7 +35606,7 @@
         <v>45993</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35668,7 +35668,7 @@
         <v>45638.31543981482</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35725,7 +35725,7 @@
         <v>45575.35040509259</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>45575</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45705.54684027778</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45112</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35968,7 +35968,7 @@
         <v>45198.41046296297</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36030,7 +36030,7 @@
         <v>45993</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36092,7 +36092,7 @@
         <v>45265</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36149,7 +36149,7 @@
         <v>44865.36378472222</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36211,7 +36211,7 @@
         <v>45995.51628472222</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36268,7 +36268,7 @@
         <v>45995.51954861111</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36330,7 +36330,7 @@
         <v>45995.50630787037</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36392,7 +36392,7 @@
         <v>44981.40171296296</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36449,7 +36449,7 @@
         <v>46038.62740740741</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36506,7 +36506,7 @@
         <v>46037</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36563,7 +36563,7 @@
         <v>45481.9578125</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36620,7 +36620,7 @@
         <v>45562.36709490741</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>45616.60813657408</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36744,7 +36744,7 @@
         <v>45644.45210648148</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36801,7 +36801,7 @@
         <v>45411.46208333333</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36863,7 +36863,7 @@
         <v>45679.36682870371</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36920,7 +36920,7 @@
         <v>46001.66116898148</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
         <v>44771.61702546296</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37039,7 +37039,7 @@
         <v>45961</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>45624.59535879629</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>45103.46510416667</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37215,7 +37215,7 @@
         <v>45775</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>45166.70038194444</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37339,7 +37339,7 @@
         <v>45629.54122685185</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37401,7 +37401,7 @@
         <v>46001.66863425926</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37463,7 +37463,7 @@
         <v>45961</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37525,7 +37525,7 @@
         <v>46001.61622685185</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37587,7 +37587,7 @@
         <v>45520.63197916667</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37644,7 +37644,7 @@
         <v>44883</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37706,7 +37706,7 @@
         <v>46002</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>46007</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37830,7 +37830,7 @@
         <v>46007</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37892,7 +37892,7 @@
         <v>45062.39581018518</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37954,7 +37954,7 @@
         <v>45168.36769675926</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38016,7 +38016,7 @@
         <v>45616.35984953704</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38078,7 +38078,7 @@
         <v>45765.67115740741</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38135,7 +38135,7 @@
         <v>45594.57032407408</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38197,7 +38197,7 @@
         <v>45938.36746527778</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38259,7 +38259,7 @@
         <v>45204</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38321,7 +38321,7 @@
         <v>45740.37754629629</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38378,7 +38378,7 @@
         <v>45609</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38440,7 +38440,7 @@
         <v>46007.69107638889</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38502,7 +38502,7 @@
         <v>46008</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38564,7 +38564,7 @@
         <v>45225.40709490741</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         <v>45225.41042824074</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38688,7 +38688,7 @@
         <v>46008</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38750,7 +38750,7 @@
         <v>46009</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38812,7 +38812,7 @@
         <v>44929.61017361111</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38869,7 +38869,7 @@
         <v>46009.44271990741</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38926,7 +38926,7 @@
         <v>46008.69476851852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38988,7 +38988,7 @@
         <v>45575.34820601852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39050,7 +39050,7 @@
         <v>46008</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39112,7 +39112,7 @@
         <v>44476</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39174,7 +39174,7 @@
         <v>46008</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39236,7 +39236,7 @@
         <v>44533</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39298,7 +39298,7 @@
         <v>46008</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39360,7 +39360,7 @@
         <v>46008.69097222222</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>46008</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39484,7 +39484,7 @@
         <v>45569.59278935185</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39546,7 +39546,7 @@
         <v>45761</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39608,7 +39608,7 @@
         <v>45589.44950231481</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39665,7 +39665,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39722,7 +39722,7 @@
         <v>45110.48509259259</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39779,7 +39779,7 @@
         <v>46010.60270833333</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>45166.66240740741</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39903,7 +39903,7 @@
         <v>46010</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39965,7 +39965,7 @@
         <v>44369</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40022,7 +40022,7 @@
         <v>46009.77938657408</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40079,7 +40079,7 @@
         <v>46010</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40141,7 +40141,7 @@
         <v>45119.6334375</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40203,7 +40203,7 @@
         <v>45526</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40260,7 +40260,7 @@
         <v>44730.99318287037</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40322,7 +40322,7 @@
         <v>45373.4712037037</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40379,7 +40379,7 @@
         <v>45243.89579861111</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40436,7 +40436,7 @@
         <v>45512</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40498,7 +40498,7 @@
         <v>46058.55002314815</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         <v>45140.50491898148</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40617,7 +40617,7 @@
         <v>46021</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40674,7 +40674,7 @@
         <v>44915.64177083333</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40736,7 +40736,7 @@
         <v>45485.45513888889</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40798,7 +40798,7 @@
         <v>45644.59341435185</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40855,7 +40855,7 @@
         <v>44431.63481481482</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40912,7 +40912,7 @@
         <v>45603.43526620371</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40974,7 +40974,7 @@
         <v>45621.38265046296</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41036,7 +41036,7 @@
         <v>44942</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41093,7 +41093,7 @@
         <v>45399.66118055556</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41155,7 +41155,7 @@
         <v>45313.73107638889</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41212,7 +41212,7 @@
         <v>45596.65178240741</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41274,7 +41274,7 @@
         <v>46042</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41331,7 +41331,7 @@
         <v>45574.45234953704</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41393,7 +41393,7 @@
         <v>45574.45362268519</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41455,7 +41455,7 @@
         <v>44370</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41512,7 +41512,7 @@
         <v>46066</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41574,7 +41574,7 @@
         <v>46062</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41636,7 +41636,7 @@
         <v>45609</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41698,7 +41698,7 @@
         <v>46029.58525462963</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41760,7 +41760,7 @@
         <v>44377</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41822,7 +41822,7 @@
         <v>45708.43793981482</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41879,7 +41879,7 @@
         <v>45754</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41941,7 +41941,7 @@
         <v>44599</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41998,7 +41998,7 @@
         <v>46030</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42055,7 +42055,7 @@
         <v>45616.51402777778</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42117,7 +42117,7 @@
         <v>45244.45287037037</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42174,7 +42174,7 @@
         <v>46066</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42236,7 +42236,7 @@
         <v>46066</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42298,7 +42298,7 @@
         <v>44970.50298611111</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42360,7 +42360,7 @@
         <v>45198.46518518519</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42422,7 +42422,7 @@
         <v>45685.42325231482</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42479,7 +42479,7 @@
         <v>44879.81773148148</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42536,7 +42536,7 @@
         <v>45560.40314814815</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42598,7 +42598,7 @@
         <v>45631.60126157408</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42660,7 +42660,7 @@
         <v>44819.43425925926</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42722,7 +42722,7 @@
         <v>45062.37524305555</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42784,7 +42784,7 @@
         <v>45404.89207175926</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42841,7 +42841,7 @@
         <v>44826</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42903,7 +42903,7 @@
         <v>44249</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42960,7 +42960,7 @@
         <v>45593</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43022,7 +43022,7 @@
         <v>45156</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43079,7 +43079,7 @@
         <v>45372.5358912037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43136,7 +43136,7 @@
         <v>44820.5415162037</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>44820.55396990741</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43260,7 +43260,7 @@
         <v>44708.380625</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43322,7 +43322,7 @@
         <v>45218.58079861111</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43379,7 +43379,7 @@
         <v>45632.01575231482</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43436,7 +43436,7 @@
         <v>45632.35070601852</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43498,7 +43498,7 @@
         <v>45243.68557870371</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43555,7 +43555,7 @@
         <v>45560.59856481481</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43617,7 +43617,7 @@
         <v>45519</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43674,7 +43674,7 @@
         <v>45071.44364583334</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43736,7 +43736,7 @@
         <v>45588.39844907408</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43793,7 +43793,7 @@
         <v>45638.99978009259</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43850,7 +43850,7 @@
         <v>45621.57195601852</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43912,7 +43912,7 @@
         <v>45317</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43969,7 +43969,7 @@
         <v>45680.5206712963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44026,7 +44026,7 @@
         <v>45205.5616087963</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44088,7 +44088,7 @@
         <v>44581</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44150,7 +44150,7 @@
         <v>45603.42096064815</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44212,7 +44212,7 @@
         <v>45554.46881944445</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44269,7 +44269,7 @@
         <v>45253.47579861111</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44331,7 +44331,7 @@
         <v>45224</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44388,7 +44388,7 @@
         <v>45187.58707175926</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44450,7 +44450,7 @@
         <v>45631.99221064815</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44507,7 +44507,7 @@
         <v>45110</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44564,7 +44564,7 @@
         <v>44729.99359953704</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         <v>44960.65702546296</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44688,7 +44688,7 @@
         <v>44967.64229166666</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44745,7 +44745,7 @@
         <v>45258.49928240741</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44802,7 +44802,7 @@
         <v>45601.56384259259</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44859,7 +44859,7 @@
         <v>45531.30974537037</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44921,7 +44921,7 @@
         <v>45208</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44983,7 +44983,7 @@
         <v>45541.46269675926</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45045,7 +45045,7 @@
         <v>45622.51221064815</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45107,7 +45107,7 @@
         <v>45497</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45164,7 +45164,7 @@
         <v>45056.64452546297</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45226,7 +45226,7 @@
         <v>44336.3533912037</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45288,7 +45288,7 @@
         <v>45638.00060185185</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45345,7 +45345,7 @@
         <v>45602.4575</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45402,7 +45402,7 @@
         <v>45176.30253472222</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45459,7 +45459,7 @@
         <v>45594.37643518519</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45521,7 +45521,7 @@
         <v>45622.42880787037</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45583,7 +45583,7 @@
         <v>45622.43456018518</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45645,7 +45645,7 @@
         <v>45622.46479166667</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45707,7 +45707,7 @@
         <v>45687.40626157408</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45764,7 +45764,7 @@
         <v>45762.61923611111</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45821,7 +45821,7 @@
         <v>45602</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45878,7 +45878,7 @@
         <v>45043.39247685186</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45940,7 +45940,7 @@
         <v>45685.42758101852</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45997,7 +45997,7 @@
         <v>45593.60061342592</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46059,7 +46059,7 @@
         <v>45562.3693287037</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46121,7 +46121,7 @@
         <v>45744.38049768518</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46183,7 +46183,7 @@
         <v>45545.79224537037</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46240,7 +46240,7 @@
         <v>45784.4484837963</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46297,7 +46297,7 @@
         <v>45565.38796296297</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46354,7 +46354,7 @@
         <v>45230.56142361111</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46416,7 +46416,7 @@
         <v>45609.37012731482</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46478,7 +46478,7 @@
         <v>45784</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46535,7 +46535,7 @@
         <v>45134.43274305556</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46597,7 +46597,7 @@
         <v>45786</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46659,7 +46659,7 @@
         <v>45581.36174768519</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46721,7 +46721,7 @@
         <v>45560.50243055556</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46783,7 +46783,7 @@
         <v>45786</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46845,7 +46845,7 @@
         <v>45789</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46907,7 +46907,7 @@
         <v>45789</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46969,7 +46969,7 @@
         <v>45789</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47031,7 +47031,7 @@
         <v>45581.35516203703</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47093,7 +47093,7 @@
         <v>45581.37739583333</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47155,7 +47155,7 @@
         <v>45600.56336805555</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47212,7 +47212,7 @@
         <v>45789.66861111111</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47269,7 +47269,7 @@
         <v>45569.59144675926</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47331,7 +47331,7 @@
         <v>45486</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47388,7 +47388,7 @@
         <v>45786</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47450,7 +47450,7 @@
         <v>45460.62337962963</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47507,7 +47507,7 @@
         <v>45789</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47569,7 +47569,7 @@
         <v>45791</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47631,7 +47631,7 @@
         <v>45791.34212962963</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47693,7 +47693,7 @@
         <v>45791</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         <v>45791</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47817,7 +47817,7 @@
         <v>45524.62398148148</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47879,7 +47879,7 @@
         <v>45533.64466435185</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47941,7 +47941,7 @@
         <v>45791</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48003,7 +48003,7 @@
         <v>45790.34148148148</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48065,7 +48065,7 @@
         <v>45586.68033564815</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48122,7 +48122,7 @@
         <v>45786</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48179,7 +48179,7 @@
         <v>45792</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48241,7 +48241,7 @@
         <v>45775</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48303,7 +48303,7 @@
         <v>44915.6166087963</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48365,7 +48365,7 @@
         <v>45770.75799768518</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48422,7 +48422,7 @@
         <v>45791.39229166666</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48484,7 +48484,7 @@
         <v>45796.5571875</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48541,7 +48541,7 @@
         <v>45791.3471875</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48603,7 +48603,7 @@
         <v>45453</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48665,7 +48665,7 @@
         <v>45541.43202546296</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48727,7 +48727,7 @@
         <v>45776.37806712963</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48784,7 +48784,7 @@
         <v>45791.36640046296</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48846,7 +48846,7 @@
         <v>45796</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48908,7 +48908,7 @@
         <v>45799</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48970,7 +48970,7 @@
         <v>45799</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49032,7 +49032,7 @@
         <v>45791.37006944444</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49094,7 +49094,7 @@
         <v>45791.3942824074</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49156,7 +49156,7 @@
         <v>45798.59552083333</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49218,7 +49218,7 @@
         <v>45799</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49280,7 +49280,7 @@
         <v>45799</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49342,7 +49342,7 @@
         <v>45499</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49399,7 +49399,7 @@
         <v>45799</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49461,7 +49461,7 @@
         <v>45798</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49523,7 +49523,7 @@
         <v>45798</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49585,7 +49585,7 @@
         <v>45803</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49647,7 +49647,7 @@
         <v>45803</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49709,7 +49709,7 @@
         <v>45803</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49771,7 +49771,7 @@
         <v>45800</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49833,7 +49833,7 @@
         <v>45800</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49890,7 +49890,7 @@
         <v>45800</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49952,7 +49952,7 @@
         <v>45800</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50014,7 +50014,7 @@
         <v>45800</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50076,7 +50076,7 @@
         <v>45800</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50138,7 +50138,7 @@
         <v>45800</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50200,7 +50200,7 @@
         <v>45805</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50262,7 +50262,7 @@
         <v>45805.65954861111</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50324,7 +50324,7 @@
         <v>45807.39702546296</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50381,7 +50381,7 @@
         <v>45811.42434027778</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50438,7 +50438,7 @@
         <v>45810.44368055555</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50500,7 +50500,7 @@
         <v>45810</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50562,7 +50562,7 @@
         <v>45810.59527777778</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50624,7 +50624,7 @@
         <v>45810.34362268518</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50686,7 +50686,7 @@
         <v>45569.59005787037</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50748,7 +50748,7 @@
         <v>45811.57329861111</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50805,7 +50805,7 @@
         <v>45813</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50867,7 +50867,7 @@
         <v>45813</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50929,7 +50929,7 @@
         <v>45813</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50991,7 +50991,7 @@
         <v>45813</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51053,7 +51053,7 @@
         <v>45813</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51115,7 +51115,7 @@
         <v>45813</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>

--- a/Översikt LUDVIKA.xlsx
+++ b/Översikt LUDVIKA.xlsx
@@ -575,7 +575,7 @@
         <v>45940</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         <v>45835.45435185185</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>45961</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>45786</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45993</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44937</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45841</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>45629.57699074074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45588.46537037037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>45981</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>45847</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>45786</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>45509.42555555556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45908</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>45940</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>45981</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>45597.35666666667</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>45842</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>45945</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>45993</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>45373.61137731482</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>45785</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>45800</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>45849.53956018519</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>45930.48451388889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>44370</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>45971</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>45611.45895833334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44435</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>45901.44197916667</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45607.62311342593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>45791.34482638889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45791.35133101852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>44844.50239583333</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>45926.58377314815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>45910</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>46010</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>46029.64107638889</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45596.66278935185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>45463</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>45842</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>45940</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>44998.36106481482</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>45971</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>45978</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>45940</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>46009.77782407407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>45978</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>45770</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>45800</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44571</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44694</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>44994</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>45575.77649305556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>44888</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>45093</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>45911</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45825</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>45840</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>45919</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>45929</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44560</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>45189</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>45945</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>45947</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>45761.39600694444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>45089</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45943</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45866</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>45971</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>45974</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>45518.38504629629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>45992.950625</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>45993</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>44706</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>46008</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>46009.56876157408</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>45105</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>46058.53010416667</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>45321</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>44693</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>46021</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>45761.67243055555</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>46069</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>46031.41959490741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>45596.63347222222</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>45541.54527777778</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>45644.59155092593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>45761</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>45777</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>45791</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45791.3395949074</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>45791.35438657407</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>44831</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>45791.36149305556</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>45800</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44302</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>44281.58608796296</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44516</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44358</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44404.87238425926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44771.62452546296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44322.48659722223</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>44344.64224537037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>44336</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>44452</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>44869</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44502.71049768518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44503.53900462963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>44550.55576388889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>44362</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44370</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>44387</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         <v>44368.49107638889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>44370</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44456</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>44643</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44459.29900462963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44730.99023148148</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>44376.4954050926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44482</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44771.62211805556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44730.92502314815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44397</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44377</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44851.3506712963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44872</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>44872.4658912037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>44720</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>44560.42800925926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44658</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44827.80170138889</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44590.92709490741</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44616.7841550926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44706</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44785</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>44330.486875</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>44420</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>44386</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>44439</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>44386</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>44482.46922453704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44508</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>44470</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44715.63222222222</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>44819.43425925926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45335.60587962963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45405</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44825.64709490741</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>45202.59850694444</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>45071.44364583334</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>45526</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>44393</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>44825.88506944444</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44826</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44859.49887731481</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>45705.54684027778</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44292</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>45372.5358912037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>45399.66118055556</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>45226.4590625</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>45208.35689814815</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44336.3533912037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>45562.53986111111</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>45225.40709490741</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>45450</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>45219.37885416667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>44377</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>45105</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>45119.6334375</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44853</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>45512.3703125</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>45575.35040509259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>45575</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>44883</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>45063</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>45502</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>45621.38265046296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>45474.31796296296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14844,7 +14844,7 @@
         <v>44844.62275462963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44895</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44879</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>45512</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>45512.48011574074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>45629.54122685185</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44994</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>45562.53810185185</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15335,7 +15335,7 @@
         <v>45575.34820601852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>45562.58427083334</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>44560.4366087963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45349</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>44515.48929398148</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>45519</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>45803</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45884</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>45884</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>45644.45210648148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>44893.67267361111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16022,7 +16022,7 @@
         <v>44893.675</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>45805.65954861111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>45883.65762731482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>45805</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>45541.41780092593</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>45813</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>45747.46331018519</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>45799</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>45810.44368055555</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>45810.34362268518</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>45603.42096064815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>45810</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>45807.39702546296</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>45810.59527777778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>45537.44119212963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>45567.46006944445</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>45811.57329861111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>45607.36243055556</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17118,7 +17118,7 @@
         <v>45811.42434027778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>45569.59005787037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>45813</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>45813</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>45043.39247685186</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>45813</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>45813</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>45813</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>45813</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44893</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>45560.59856481481</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>45860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>45819</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>45062.39581018518</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>45820.38174768518</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>45891.41975694444</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>45589.44950231481</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>45622.43274305556</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>45622.44318287037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>45824.66146990741</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>45826</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>45895.00098379629</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>45789.67512731482</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>45761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>45898</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>45898</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>45679.36682870371</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>45825.37844907407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>45826</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>45898</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>45898.60778935185</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>45898</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>45827</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>45594.37643518519</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45588.39844907408</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45827</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>45827</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45901.31774305556</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>45827</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>45579.35708333334</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44978</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45902.67721064815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>45902</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>45903</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>45903.39708333334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>45904.70763888889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>45904.59947916667</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45831</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>45832</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>45902.78278935186</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>45831.6599537037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>45903</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>45903.41763888889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45903.55486111111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         <v>45832</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>45831.58627314815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45831.59947916667</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>45832</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>45833</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>45834.57716435185</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>45740.37754629629</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>45835</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>45187.58707175926</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45835</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>45562.36709490741</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>45562.3693287037</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>45868.4570949074</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>45623.64104166667</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>45909.45607638889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>45601.56384259259</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>45838</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21410,7 +21410,7 @@
         <v>45840</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21472,7 +21472,7 @@
         <v>45910</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21534,7 +21534,7 @@
         <v>45840</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>45840</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
         <v>44929.61017361111</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>44970.50298611111</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         <v>45114</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21829,7 +21829,7 @@
         <v>44264</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21886,7 +21886,7 @@
         <v>44711</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>44960.65702546296</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22010,7 +22010,7 @@
         <v>45574</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>45624.59535879629</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>45910.3044212963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>45603.43526620371</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22253,7 +22253,7 @@
         <v>45629</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22315,7 +22315,7 @@
         <v>45574.45234953704</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>45574.45362268519</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>45910.86336805556</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>45911.49506944444</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22558,7 +22558,7 @@
         <v>45845</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22620,7 +22620,7 @@
         <v>45911.43200231482</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>45611.55626157407</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>45625.42575231481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>45845</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>45911.48769675926</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>45301</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44960</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>45611.551875</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>45519</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>45911</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>45593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>45846</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45502.30283564814</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>45910.91788194444</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
         <v>45847</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>45847</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45911.43902777778</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23649,7 +23649,7 @@
         <v>45638.46208333333</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
         <v>45062.37524305555</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>45915.99416666666</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>45849</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>45849</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23954,7 +23954,7 @@
         <v>45849</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         <v>45525.56513888889</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>45576</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>45825</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>45856</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>45210</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>45810</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>45616.51402777778</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>45916.0008912037</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>45915</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>45632.01575231482</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>45632.35070601852</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45918.65405092593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>45917.59390046296</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>45512</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>45862</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>45918.47898148148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>45832</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25050,7 +25050,7 @@
         <v>45832</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25112,7 +25112,7 @@
         <v>45840</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>45832</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>45840</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>45840</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25360,7 +25360,7 @@
         <v>45863</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45638.00060185185</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45863</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>45863</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25603,7 +25603,7 @@
         <v>45644.65412037037</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>45849</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>45567.45354166667</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>45568.00373842593</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>45919</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>45911</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45924.46261574074</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45912</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>45924.45159722222</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>45204</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         <v>45924.43376157407</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>45924.45614583333</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>45924.55571759259</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26404,7 +26404,7 @@
         <v>45923</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         <v>45902</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>45923.64064814815</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45923.32206018519</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26647,7 +26647,7 @@
         <v>44680</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>45924</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>45925</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>45926</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45869</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>45926</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>45860</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>45869</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27138,7 +27138,7 @@
         <v>45869</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>45869</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>45926</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>45929.60186342592</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27386,7 +27386,7 @@
         <v>45926</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27448,7 +27448,7 @@
         <v>45337</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27505,7 +27505,7 @@
         <v>44729.99359953704</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45761.66826388889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>44291</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45875.51950231481</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45875.54314814815</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>44369</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27852,7 +27852,7 @@
         <v>44581</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45926</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27976,7 +27976,7 @@
         <v>44820.5415162037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28038,7 +28038,7 @@
         <v>44820.55396990741</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45849</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45849</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>45813</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28286,7 +28286,7 @@
         <v>45224</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28343,7 +28343,7 @@
         <v>45687.39811342592</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28400,7 +28400,7 @@
         <v>45936.36597222222</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28462,7 +28462,7 @@
         <v>45933.48107638889</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45762.61923611111</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28576,7 +28576,7 @@
         <v>45936.45299768518</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>44364.63512731482</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>45936.46136574074</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45936.36644675926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28824,7 +28824,7 @@
         <v>45769</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>45765.67115740741</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45685.42758101852</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29000,7 +29000,7 @@
         <v>44923.35560185185</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29057,7 +29057,7 @@
         <v>44916.67578703703</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>45940</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>45940</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>45940</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>45497</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29362,7 +29362,7 @@
         <v>44431.63481481482</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>45106</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
         <v>45944.93016203704</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29533,7 +29533,7 @@
         <v>45411.46208333333</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29595,7 +29595,7 @@
         <v>45531.30570601852</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29657,7 +29657,7 @@
         <v>44942</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29714,7 +29714,7 @@
         <v>45603.4574074074</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44730.98890046297</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29838,7 +29838,7 @@
         <v>45737.49886574074</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29900,7 +29900,7 @@
         <v>45637.99482638889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29957,7 +29957,7 @@
         <v>45631.99221064815</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30014,7 +30014,7 @@
         <v>45952.37715277778</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30071,7 +30071,7 @@
         <v>45951.41353009259</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30128,7 +30128,7 @@
         <v>45952.01278935185</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30185,7 +30185,7 @@
         <v>45099.49403935186</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>45560.40314814815</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>45954.56233796296</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>45954</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30428,7 +30428,7 @@
         <v>45954.43010416667</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>45349</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>45349</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30614,7 +30614,7 @@
         <v>45265</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30671,7 +30671,7 @@
         <v>45954</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30733,7 +30733,7 @@
         <v>45954</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>45954.43126157407</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30857,7 +30857,7 @@
         <v>45954</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>45954</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30976,7 +30976,7 @@
         <v>45954</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>45954.38309027778</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>45761</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>45954</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31214,7 +31214,7 @@
         <v>45957.34634259259</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31276,7 +31276,7 @@
         <v>45954.56762731481</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31333,7 +31333,7 @@
         <v>45957</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31395,7 +31395,7 @@
         <v>45131</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31452,7 +31452,7 @@
         <v>45321</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         <v>45957</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31571,7 +31571,7 @@
         <v>45957</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31633,7 +31633,7 @@
         <v>45954.41153935185</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31695,7 +31695,7 @@
         <v>45960</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31757,7 +31757,7 @@
         <v>45288</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31814,7 +31814,7 @@
         <v>45960</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31876,7 +31876,7 @@
         <v>45960</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31938,7 +31938,7 @@
         <v>45891.55704861111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45891.45390046296</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>45963.40699074074</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>45924.44282407407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>45904.75224537037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44865.36378472222</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>45966.41693287037</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32367,7 +32367,7 @@
         <v>45965.42407407407</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32429,7 +32429,7 @@
         <v>45399.34371527778</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>45965.36070601852</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>44477</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>45968</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>45968</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32729,7 +32729,7 @@
         <v>45968</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>45609</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32853,7 +32853,7 @@
         <v>45968</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>45569</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>45971</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33039,7 +33039,7 @@
         <v>45971.47175925926</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33101,7 +33101,7 @@
         <v>45972</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>45971</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>45971</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33287,7 +33287,7 @@
         <v>45971.41719907407</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         <v>45971</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>45971</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>45971</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>45971.47452546296</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         <v>45971.50697916667</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33659,7 +33659,7 @@
         <v>45974</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33721,7 +33721,7 @@
         <v>45974</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>44476</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45973</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33907,7 +33907,7 @@
         <v>45974</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33969,7 +33969,7 @@
         <v>45973</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34031,7 +34031,7 @@
         <v>45973</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34093,7 +34093,7 @@
         <v>45973</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>44981.40171296296</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45258.49928240741</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45974</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34331,7 +34331,7 @@
         <v>45404.89207175926</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34388,7 +34388,7 @@
         <v>45594.37241898148</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>45973.499375</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34512,7 +34512,7 @@
         <v>45973.50497685185</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>45110.48509259259</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>45974</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>45975</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34755,7 +34755,7 @@
         <v>45975.64983796296</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>45978</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34879,7 +34879,7 @@
         <v>44533</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34941,7 +34941,7 @@
         <v>45975.59326388889</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35003,7 +35003,7 @@
         <v>45975</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35065,7 +35065,7 @@
         <v>45593.60061342592</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35127,7 +35127,7 @@
         <v>45980</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35189,7 +35189,7 @@
         <v>45685.42325231482</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35246,7 +35246,7 @@
         <v>45981</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35308,7 +35308,7 @@
         <v>45572.4962037037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35370,7 +35370,7 @@
         <v>45981</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35432,7 +35432,7 @@
         <v>45488</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35489,7 +35489,7 @@
         <v>45985</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35551,7 +35551,7 @@
         <v>45113</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         <v>45602</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         <v>45112</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35732,7 +35732,7 @@
         <v>45887.62774305556</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35794,7 +35794,7 @@
         <v>45891.56180555555</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35856,7 +35856,7 @@
         <v>45205</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35918,7 +35918,7 @@
         <v>45929.6437962963</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35980,7 +35980,7 @@
         <v>45929.59041666667</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>45988.44615740741</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36119,7 +36119,7 @@
         <v>45644.59341435185</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36176,7 +36176,7 @@
         <v>45988</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36238,7 +36238,7 @@
         <v>45988</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>45639</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>45909.44322916667</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36419,7 +36419,7 @@
         <v>45988</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36481,7 +36481,7 @@
         <v>45569.59278935185</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36543,7 +36543,7 @@
         <v>45989</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36600,7 +36600,7 @@
         <v>45989</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36662,7 +36662,7 @@
         <v>45989</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36719,7 +36719,7 @@
         <v>45989</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36781,7 +36781,7 @@
         <v>45989</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36838,7 +36838,7 @@
         <v>45989</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36900,7 +36900,7 @@
         <v>45594.57820601852</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36957,7 +36957,7 @@
         <v>45541.46269675926</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37019,7 +37019,7 @@
         <v>45993</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37081,7 +37081,7 @@
         <v>45622.51221064815</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37143,7 +37143,7 @@
         <v>45629.60636574074</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37205,7 +37205,7 @@
         <v>45993</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45189</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37324,7 +37324,7 @@
         <v>45191.34273148148</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37386,7 +37386,7 @@
         <v>45622.46479166667</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>45616.60813657408</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37510,7 +37510,7 @@
         <v>45594.57032407408</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37572,7 +37572,7 @@
         <v>45198.41046296297</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37634,7 +37634,7 @@
         <v>45995.51628472222</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37691,7 +37691,7 @@
         <v>45995.50630787037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>45995.51954861111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37815,7 +37815,7 @@
         <v>45512.44429398148</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37877,7 +37877,7 @@
         <v>45622.42880787037</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>45622.43456018518</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38001,7 +38001,7 @@
         <v>45099.48079861111</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38063,7 +38063,7 @@
         <v>45961</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38125,7 +38125,7 @@
         <v>45961</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38187,7 +38187,7 @@
         <v>46002</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38249,7 +38249,7 @@
         <v>46001.66116898148</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38311,7 +38311,7 @@
         <v>46001.66863425926</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38373,7 +38373,7 @@
         <v>46001.61622685185</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38435,7 +38435,7 @@
         <v>45687.40626157408</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38492,7 +38492,7 @@
         <v>45168.36769675926</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38554,7 +38554,7 @@
         <v>45609</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38616,7 +38616,7 @@
         <v>45560.45458333333</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38678,7 +38678,7 @@
         <v>45208</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38740,7 +38740,7 @@
         <v>45638.31543981482</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38797,7 +38797,7 @@
         <v>44789</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38854,7 +38854,7 @@
         <v>45166.70038194444</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38916,7 +38916,7 @@
         <v>45775.41047453704</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38973,7 +38973,7 @@
         <v>44708.380625</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39035,7 +39035,7 @@
         <v>44687.67511574074</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39092,7 +39092,7 @@
         <v>45210</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39154,7 +39154,7 @@
         <v>44841.75935185186</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39211,7 +39211,7 @@
         <v>45140.50491898148</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>45754</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39335,7 +39335,7 @@
         <v>45621.62696759259</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39397,7 +39397,7 @@
         <v>46007.69107638889</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39459,7 +39459,7 @@
         <v>45645</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39521,7 +39521,7 @@
         <v>46008</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39583,7 +39583,7 @@
         <v>46007</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39645,7 +39645,7 @@
         <v>45208</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39707,7 +39707,7 @@
         <v>46008.69097222222</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39769,7 +39769,7 @@
         <v>46008</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39831,7 +39831,7 @@
         <v>45244.45287037037</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39888,7 +39888,7 @@
         <v>45938.36746527778</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39950,7 +39950,7 @@
         <v>46008</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40012,7 +40012,7 @@
         <v>46007</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40074,7 +40074,7 @@
         <v>46008</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40136,7 +40136,7 @@
         <v>46008</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40198,7 +40198,7 @@
         <v>46008</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40260,7 +40260,7 @@
         <v>46008.69476851852</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40322,7 +40322,7 @@
         <v>45156</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40379,7 +40379,7 @@
         <v>45219.4410300926</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40441,7 +40441,7 @@
         <v>45253.47579861111</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40503,7 +40503,7 @@
         <v>46009.77938657408</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40560,7 +40560,7 @@
         <v>45253.65673611111</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40622,7 +40622,7 @@
         <v>46010.60270833333</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40684,7 +40684,7 @@
         <v>46010</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40746,7 +40746,7 @@
         <v>46010</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40808,7 +40808,7 @@
         <v>46009</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40870,7 +40870,7 @@
         <v>46009.44271990741</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40927,7 +40927,7 @@
         <v>45225.41042824074</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40989,7 +40989,7 @@
         <v>45198.46518518519</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41051,7 +41051,7 @@
         <v>45581</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41113,7 +41113,7 @@
         <v>45208.65275462963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41170,7 +41170,7 @@
         <v>46058.55002314815</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41227,7 +41227,7 @@
         <v>45246</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41284,7 +41284,7 @@
         <v>45754</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         <v>45744.38216435185</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41408,7 +41408,7 @@
         <v>45716.41461805555</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41470,7 +41470,7 @@
         <v>45399.42689814815</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41527,7 +41527,7 @@
         <v>46021</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41584,7 +41584,7 @@
         <v>44771.61702546296</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41641,7 +41641,7 @@
         <v>46042</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41698,7 +41698,7 @@
         <v>44915.64177083333</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41760,7 +41760,7 @@
         <v>44459</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41817,7 +41817,7 @@
         <v>44859</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41879,7 +41879,7 @@
         <v>44316</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41941,7 +41941,7 @@
         <v>45708.43793981482</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41998,7 +41998,7 @@
         <v>46066</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42060,7 +42060,7 @@
         <v>46030</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42117,7 +42117,7 @@
         <v>45243.68557870371</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42174,7 +42174,7 @@
         <v>46062</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42236,7 +42236,7 @@
         <v>45616.35984953704</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42298,7 +42298,7 @@
         <v>45589.44649305556</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         <v>46066</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42417,7 +42417,7 @@
         <v>46029.58525462963</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42479,7 +42479,7 @@
         <v>45279</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42536,7 +42536,7 @@
         <v>45246</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42593,7 +42593,7 @@
         <v>45301</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42650,7 +42650,7 @@
         <v>45775</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42712,7 +42712,7 @@
         <v>46076.86967592593</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42769,7 +42769,7 @@
         <v>45601.56344907408</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42826,7 +42826,7 @@
         <v>44879.81773148148</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42883,7 +42883,7 @@
         <v>46076.88342592592</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42940,7 +42940,7 @@
         <v>44970.60710648148</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43002,7 +43002,7 @@
         <v>44370</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43059,7 +43059,7 @@
         <v>44552</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43116,7 +43116,7 @@
         <v>45596.65178240741</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         <v>44730.99318287037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43240,7 +43240,7 @@
         <v>44599</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43297,7 +43297,7 @@
         <v>44859.42164351852</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43359,7 +43359,7 @@
         <v>44960.65628472222</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>46038.62740740741</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>45595.33203703703</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>46037</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>45196.46915509259</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43654,7 +43654,7 @@
         <v>45205.5616087963</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43716,7 +43716,7 @@
         <v>44439.68940972222</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43773,7 +43773,7 @@
         <v>45313.73107638889</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>45594.55173611111</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43892,7 +43892,7 @@
         <v>45594.5666550926</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43954,7 +43954,7 @@
         <v>45043</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44016,7 +44016,7 @@
         <v>44333</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>44413</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>44903</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>44970.61488425926</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44254,7 +44254,7 @@
         <v>45510.51506944445</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44311,7 +44311,7 @@
         <v>45576</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>45161.42324074074</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44435,7 +44435,7 @@
         <v>45562.40503472222</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44492,7 +44492,7 @@
         <v>44890</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44554,7 +44554,7 @@
         <v>45371.61341435185</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44611,7 +44611,7 @@
         <v>45243.89579861111</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44668,7 +44668,7 @@
         <v>45762</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44730,7 +44730,7 @@
         <v>45373.4712037037</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>45631.60126157408</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44849,7 +44849,7 @@
         <v>45176.30253472222</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44906,7 +44906,7 @@
         <v>45056.64452546297</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44968,7 +44968,7 @@
         <v>45638.99978009259</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45025,7 +45025,7 @@
         <v>45166.66240740741</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44872</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45149,7 +45149,7 @@
         <v>45110</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45206,7 +45206,7 @@
         <v>45551.76079861111</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45263,7 +45263,7 @@
         <v>45152.35784722222</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45325,7 +45325,7 @@
         <v>45152.36019675926</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45387,7 +45387,7 @@
         <v>44967.64229166666</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45444,7 +45444,7 @@
         <v>45554.46881944445</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45501,7 +45501,7 @@
         <v>45576</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45563,7 +45563,7 @@
         <v>45520.63197916667</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45620,7 +45620,7 @@
         <v>45481.9578125</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45677,7 +45677,7 @@
         <v>45629.60449074074</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         <v>45297</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45796,7 +45796,7 @@
         <v>45218.58079861111</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45853,7 +45853,7 @@
         <v>45644.44615740741</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45910,7 +45910,7 @@
         <v>45611.45319444445</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45972,7 +45972,7 @@
         <v>45602.4575</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46029,7 +46029,7 @@
         <v>45103.46510416667</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46086,7 +46086,7 @@
         <v>44929</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46148,7 +46148,7 @@
         <v>45680.5206712963</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46205,7 +46205,7 @@
         <v>45334</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46262,7 +46262,7 @@
         <v>45621.57195601852</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46324,7 +46324,7 @@
         <v>45579.33577546296</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46381,7 +46381,7 @@
         <v>45579.33912037037</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46438,7 +46438,7 @@
         <v>45579.34377314815</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46495,7 +46495,7 @@
         <v>44482.46025462963</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46552,7 +46552,7 @@
         <v>44405.60167824074</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46609,7 +46609,7 @@
         <v>45152.3591087963</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46671,7 +46671,7 @@
         <v>45317.4196875</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46728,7 +46728,7 @@
         <v>45531.30974537037</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46790,7 +46790,7 @@
         <v>45379.57112268519</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46852,7 +46852,7 @@
         <v>45616.50763888889</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46914,7 +46914,7 @@
         <v>45629.55177083334</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46976,7 +46976,7 @@
         <v>45212.65407407407</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47033,7 +47033,7 @@
         <v>45646.40943287037</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47090,7 +47090,7 @@
         <v>45317</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>45485.45513888889</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47209,7 +47209,7 @@
         <v>45743.4653587963</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         <v>45744.38049768518</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47328,7 +47328,7 @@
         <v>45784</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47385,7 +47385,7 @@
         <v>45784.4484837963</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47442,7 +47442,7 @@
         <v>45545.79224537037</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47499,7 +47499,7 @@
         <v>45565.38796296297</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47556,7 +47556,7 @@
         <v>45460.62337962963</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47613,7 +47613,7 @@
         <v>45230.56142361111</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47675,7 +47675,7 @@
         <v>45581.36174768519</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47737,7 +47737,7 @@
         <v>45609.37012731482</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47799,7 +47799,7 @@
         <v>45581.35516203703</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47861,7 +47861,7 @@
         <v>45786</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47923,7 +47923,7 @@
         <v>45134.43274305556</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47985,7 +47985,7 @@
         <v>45789</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48047,7 +48047,7 @@
         <v>45789</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48109,7 +48109,7 @@
         <v>45600.56336805555</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>45786</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48228,7 +48228,7 @@
         <v>45533.64466435185</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48290,7 +48290,7 @@
         <v>45569.59144675926</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48352,7 +48352,7 @@
         <v>45789.66861111111</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48409,7 +48409,7 @@
         <v>45789</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48471,7 +48471,7 @@
         <v>45486</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48528,7 +48528,7 @@
         <v>45789</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48590,7 +48590,7 @@
         <v>45790.34148148148</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48652,7 +48652,7 @@
         <v>45586.68033564815</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48709,7 +48709,7 @@
         <v>45581.37739583333</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48771,7 +48771,7 @@
         <v>45786</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48833,7 +48833,7 @@
         <v>45560.50243055556</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48895,7 +48895,7 @@
         <v>45791</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48957,7 +48957,7 @@
         <v>45791.34212962963</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49019,7 +49019,7 @@
         <v>45792</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49081,7 +49081,7 @@
         <v>45786</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49138,7 +49138,7 @@
         <v>45791</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49200,7 +49200,7 @@
         <v>45524.62398148148</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49262,7 +49262,7 @@
         <v>45791</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49324,7 +49324,7 @@
         <v>45791</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49386,7 +49386,7 @@
         <v>45453</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49448,7 +49448,7 @@
         <v>45541.43202546296</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49510,7 +49510,7 @@
         <v>45796.5571875</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49567,7 +49567,7 @@
         <v>45796</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49629,7 +49629,7 @@
         <v>44915.6166087963</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49691,7 +49691,7 @@
         <v>45499</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49748,7 +49748,7 @@
         <v>45798</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49810,7 +49810,7 @@
         <v>45791.3471875</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49872,7 +49872,7 @@
         <v>45791.36640046296</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49934,7 +49934,7 @@
         <v>45791.37006944444</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49996,7 +49996,7 @@
         <v>45798</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50058,7 +50058,7 @@
         <v>45776.37806712963</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50115,7 +50115,7 @@
         <v>45791.39229166666</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50177,7 +50177,7 @@
         <v>45791.3942824074</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50239,7 +50239,7 @@
         <v>45775</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50301,7 +50301,7 @@
         <v>45798.59552083333</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50363,7 +50363,7 @@
         <v>45770.75799768518</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50420,7 +50420,7 @@
         <v>45800</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50482,7 +50482,7 @@
         <v>45800</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50544,7 +50544,7 @@
         <v>45800</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50606,7 +50606,7 @@
         <v>45799</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50668,7 +50668,7 @@
         <v>45799</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50730,7 +50730,7 @@
         <v>45800</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50787,7 +50787,7 @@
         <v>45799</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50849,7 +50849,7 @@
         <v>45800</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50911,7 +50911,7 @@
         <v>45799</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50973,7 +50973,7 @@
         <v>45800</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51035,7 +51035,7 @@
         <v>45800</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51097,7 +51097,7 @@
         <v>45799</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51159,7 +51159,7 @@
         <v>45803</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51221,7 +51221,7 @@
         <v>45803</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
